--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="785">
-  <si>
-    <t xml:space="preserve">内                                     国 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="983">
+  <si>
+    <t xml:space="preserve">内                                          国 </t>
   </si>
   <si>
     <t>英文</t>
@@ -36,7 +36,7 @@
     <t>德文</t>
   </si>
   <si>
-    <t>容                      家</t>
+    <t>容                            家</t>
   </si>
   <si>
     <t>位   置</t>
@@ -1443,6 +1443,113 @@
     <t>Geld abheben</t>
   </si>
   <si>
+    <t>Friend_InviteBanner</t>
+  </si>
+  <si>
+    <t>Invite friends &amp; earn up to    &lt;size={0}&gt;&lt;color=#FF5952&gt;${1}&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Пригласить друзей и заработать до &lt;size={0}&gt;&lt;color=#FF5952&gt;${1}&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>友達を招待して最大 を稼ごう&lt;size={0}&gt;&lt;color=#FF5952&gt;${1}&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>적립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;size={0}&gt;&lt;color=#FF5952&gt;${1}&lt;/color&gt;&lt;/size&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Laden Sie Freunde und verdienen bis zu &lt;size={0}&gt;&lt;color=#FF5952&gt;${1}&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>Friend_Myfriends</t>
   </si>
   <si>
@@ -1602,136 +1709,40 @@
     <t>Lade Freunde ein, um zu bekommen</t>
   </si>
   <si>
-    <t>Friend_MyIncome</t>
-  </si>
-  <si>
-    <t>My income</t>
-  </si>
-  <si>
-    <t>Мой доход</t>
-  </si>
-  <si>
-    <t>私の収入</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>수입</t>
-    </r>
-  </si>
-  <si>
-    <t>Mein Einkommen</t>
-  </si>
-  <si>
     <t>Friend_YesterdayIncome</t>
   </si>
   <si>
-    <t>yesterday income</t>
-  </si>
-  <si>
-    <t>вчерашний доход</t>
-  </si>
-  <si>
-    <t>昨日の収入</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>어제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>수입</t>
-    </r>
-  </si>
-  <si>
-    <t>gestern Einkommen</t>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Вчера</t>
+  </si>
+  <si>
+    <t>昨日</t>
+  </si>
+  <si>
+    <t>어제</t>
+  </si>
+  <si>
+    <t>Gestern</t>
   </si>
   <si>
     <t>Friend_TotalIncome</t>
   </si>
   <si>
-    <t>total income</t>
-  </si>
-  <si>
-    <t>суммарный доход</t>
-  </si>
-  <si>
-    <t>総収入</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>총</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>수입</t>
-    </r>
-  </si>
-  <si>
-    <t>Gesamteinkommen</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
   <si>
     <t>Friend_LastDayDetails</t>
@@ -2228,6 +2239,174 @@
     <t>Freunde von deinen Freunden eingeladen</t>
   </si>
   <si>
+    <t>FriendEvent_Invitation</t>
+  </si>
+  <si>
+    <t>INVITATION</t>
+  </si>
+  <si>
+    <t>ПРИГЛАШЕНИЕ</t>
+  </si>
+  <si>
+    <t>招待する</t>
+  </si>
+  <si>
+    <t>초대</t>
+  </si>
+  <si>
+    <t>EINLADUNG</t>
+  </si>
+  <si>
+    <t>FriendEvent_InvitationReward</t>
+  </si>
+  <si>
+    <t>Get $0.5 per invite</t>
+  </si>
+  <si>
+    <t>Получите $ 0,5 за пригласите</t>
+  </si>
+  <si>
+    <t>$ 0.5を取得するための招待</t>
+  </si>
+  <si>
+    <t>초대 당 $ 0.5 받기</t>
+  </si>
+  <si>
+    <t>Holen Sie sich $ 0,5 pro Einladung</t>
+  </si>
+  <si>
+    <t>FriendEvent_InviteAndEarn</t>
+  </si>
+  <si>
+    <t>Invite &amp; Earn</t>
+  </si>
+  <si>
+    <t>Пригласить и зарабатывай</t>
+  </si>
+  <si>
+    <t>招待＆獲得</t>
+  </si>
+  <si>
+    <t>초대 및 적립</t>
+  </si>
+  <si>
+    <t>Einladen &amp; verdienen</t>
+  </si>
+  <si>
+    <t>FriendEvent_MyInviteCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My invite code: </t>
+  </si>
+  <si>
+    <t>Мой инвайт-код:</t>
+  </si>
+  <si>
+    <t>私の招待コード：</t>
+  </si>
+  <si>
+    <t>내 초대 코드 :</t>
+  </si>
+  <si>
+    <t>Mein Einladungscode:</t>
+  </si>
+  <si>
+    <t>FriendEvent_Copy</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>копия</t>
+  </si>
+  <si>
+    <t>コピー</t>
+  </si>
+  <si>
+    <t>부</t>
+  </si>
+  <si>
+    <t>Kopie</t>
+  </si>
+  <si>
+    <t>FriendEvent_Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>FriendEvent_Current</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>ток</t>
+  </si>
+  <si>
+    <t>現在</t>
+  </si>
+  <si>
+    <t>흐름</t>
+  </si>
+  <si>
+    <t>FriendEvent_Expect</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>Ожидать</t>
+  </si>
+  <si>
+    <t>期待する</t>
+  </si>
+  <si>
+    <t>배고 있다</t>
+  </si>
+  <si>
+    <t>FriendEvent_NoRecords</t>
+  </si>
+  <si>
+    <t>No Records</t>
+  </si>
+  <si>
+    <t>Нет записей</t>
+  </si>
+  <si>
+    <t>記録なし</t>
+  </si>
+  <si>
+    <t>기록 없음</t>
+  </si>
+  <si>
+    <t>FriendEvent_ReferringBonus</t>
+  </si>
+  <si>
+    <t>referring bonus  :</t>
+  </si>
+  <si>
+    <t>ссылаясь бонус:</t>
+  </si>
+  <si>
+    <t>参照ボーナス：</t>
+  </si>
+  <si>
+    <t>추천 보너스</t>
+  </si>
+  <si>
     <t>Multiplier</t>
   </si>
   <si>
@@ -3250,6 +3429,193 @@
   </si>
   <si>
     <t>Freikarten</t>
+  </si>
+  <si>
+    <t>Task_Des_OwnSomeFriend</t>
+  </si>
+  <si>
+    <t>Own {0} close friends</t>
+  </si>
+  <si>
+    <t>Пусть {0} близкие друзья</t>
+  </si>
+  <si>
+    <t>{0}人の親しい友人を所有する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>소유</t>
+    </r>
+  </si>
+  <si>
+    <t>Besitze {0} enge Freunde</t>
+  </si>
+  <si>
+    <t>Task_Des_OwnFriendAndAllReachLv</t>
+  </si>
+  <si>
+    <t>Have {0} close friends reach lv{0}</t>
+  </si>
+  <si>
+    <t>Пусть {0} близкие друзья достигают лв {0}</t>
+  </si>
+  <si>
+    <t>持っている{0}の親しい友人が到達LV {0}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>명이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lv {0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>도달하도록합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Besitze {0} enge Freunde lv {0} erreichen</t>
   </si>
   <si>
     <t>BUY</t>
@@ -5172,6 +5538,18 @@
     <t>Check in 15 days, you can receive the money!</t>
   </si>
   <si>
+    <t>Проверьте в течение 15 дней, вы можете получить деньги!</t>
+  </si>
+  <si>
+    <t>15日でチェックインすると、お金を受け取ることができます！</t>
+  </si>
+  <si>
+    <t>15 일 체크인하면 돈을받을 수 있습니다!</t>
+  </si>
+  <si>
+    <t>Checken Sie in 15 Tagen, können Sie das Geld erhalten!</t>
+  </si>
+  <si>
     <t>InviteOk_Tip</t>
   </si>
   <si>
@@ -5394,6 +5772,24 @@
     <t>Gebrauchsgegenstand</t>
   </si>
   <si>
+    <t>InviteCode</t>
+  </si>
+  <si>
+    <t>Invite Code</t>
+  </si>
+  <si>
+    <t>Пригласить код</t>
+  </si>
+  <si>
+    <t>招待コード</t>
+  </si>
+  <si>
+    <t>코드를 초대</t>
+  </si>
+  <si>
+    <t>Einladungscode</t>
+  </si>
+  <si>
     <t>OpenPrize_Title</t>
   </si>
   <si>
@@ -7203,6 +7599,30 @@
   </si>
   <si>
     <t>Historische Datensätze gefunden, Daten werden aktualisiert.</t>
+  </si>
+  <si>
+    <t>Tips_CopySuccess</t>
+  </si>
+  <si>
+    <t>Copy complete</t>
+  </si>
+  <si>
+    <t>Копировать</t>
+  </si>
+  <si>
+    <t>コピーコンプリート</t>
+  </si>
+  <si>
+    <t>복사 완료</t>
+  </si>
+  <si>
+    <t>Kopieren</t>
+  </si>
+  <si>
+    <t>Tips_FriendEventWaitCashout</t>
+  </si>
+  <si>
+    <t>You must wait for the review to end</t>
   </si>
   <si>
     <t>Rules_PlaySlots</t>
@@ -11364,6 +11784,443 @@
     <t>LASS UNS SPIELEN!</t>
   </si>
   <si>
+    <t>Rules_Sign</t>
+  </si>
+  <si>
+    <t>1.You can withdraw 50$ after sign-in 15 days continuously.
+2.Daily sign-in can get extra bonus, withdraw by it!
+3.We never pity cheaters, we will erase all data of cheaters.
+4.Since wrong information cause failed pay,We won't be responsible.</t>
+  </si>
+  <si>
+    <t>1.Вы можете снять 50 $ после входа в непрерывно 15 дней.
+2.Ежедневно вход может получить дополнительный бонус, снять его!
+3.Мы никогда не жалуем читеров, мы сотрем все данные читеров.
+4.Поскольку неправильная информация является причиной неудачной оплаты, мы не несем ответственности.</t>
+  </si>
+  <si>
+    <t>1.あなたは、サインイン連続15日後に50 $を撤回することができます。
+2.毎日のサインインは追加のボーナスを得ることができます、それによって撤回してくださいい
+3.私たちは決して詐欺師を憐れみません、私たちは詐欺師のすべてのデータを消去します。
+4.間違った情報は支払いの失敗を引き起こすので、私たちは責任を負いません。</t>
+  </si>
+  <si>
+    <t>1.로그인 후 15 일 연속으로 50 $를 인출 할 수 있습니다.
+2.매일 로그인은 추가 보너스를 얻을 그것에 의해 철회 할 수 있습니다!
+3.우리는 사기꾼을 결코 동정하지 않으며 사기꾼의 모든 데이터를 지울 것입니다.
+4.잘못된 정보로 인해 지불 실패가 발생하므로 책임을지지 않습니다.</t>
+  </si>
+  <si>
+    <t>1.Sie können 50 $ nach 15 Tagen ununterbrochener Anmeldung abheben.
+2.Die tägliche Anmeldung kann extra Bonus bekommen, zurückgezogen!
+3.Wir haben nie Mitleid mit Betrügern, wir werden alle Daten von Betrügern löschen.
+4.Da falsche Informationen zu einer fehlgeschlagenen Bezahlung führen, sind wir nicht verantwortlich.</t>
+  </si>
+  <si>
+    <t>Rules_FriendEvent</t>
+  </si>
+  <si>
+    <t>1.Share the invite page to your friends. Only if your friends download through your link, install the game, your invitation is counted as a success.
+2.You can only invite users who have not played the game before.Once your friends finish the tasks, you can get the full benefits of referring bonus.
+3.Declaration: In order to protect users' benefits, users who use improper way to invite people will be disqualified to take part in this event and correspondent rewards will be deducted.</t>
+  </si>
+  <si>
+    <t>1.Поделитесь страницей приглашения с друзьями. Только если ваши друзья скачивают по вашей ссылке, устанавливают игру, ваше приглашение засчитывается как успешное.
+2.Вы можете пригласить только для пользователей, которые не играли в игру before.Once ваших друзья закончить задачи, вы можете получить все преимущества в виде бонуса.
+3.Заявление: в целях защиты преимуществ пользователей, пользователи, которые используют неправильный способ приглашения людей, будут дисквалифицированы для участия в этом мероприятии, и соответствующие награды будут вычтены.</t>
+  </si>
+  <si>
+    <t>1.招待ページを友達と共有します。 友達があなたのリンクからダウンロードしてゲームをインストールした場合にのみ、あなたの招待は成功としてカウントされます。
+2.招待できるのは、これまでゲームをプレイしたことがないユーザーのみです。友達がタスクを完了すると、ボーナスを紹介するメリットを最大限に活用できます。
+3.宣言：ユーザーの利益を保護するために、不適切な方法でユーザーを招待したユーザーは、このイベントへの参加資格を失い、特派員の報酬が差し引かれます。</t>
+  </si>
+  <si>
+    <t>1.친구에게 초대 페이지를 공유하세요. 친구가 링크를 통해 다운로드하고 게임을 설치 한 경우에만 초대가 성공으로 간주됩니다.
+2.게임을 해본 적이없는 유저 만 초대 할 수 있으며, 친구가 작업을 완료하면 추천 보너스의 모든 혜택을받을 수 있습니다.
+3.선언 : 이용자의 혜택을 보호하기 위해 부당한 방법으로 사람을 초대하는 이용자는 본 행사에 참여할 수 없으며 해당 보상이 차감됩니다.</t>
+  </si>
+  <si>
+    <t>1.Teilen Sie die Einladungsseite mit Ihren Freunden. Nur wenn Ihre Freunde über Ihren Link herunterladen, das Spiel installieren, wird Ihre Einladung als Erfolg gezählt.
+2.Sie können nur Nutzer einladen, die das Spiel noch nicht gespielt haben. Sobald Ihre Freunde die Aufgaben erledigt haben, können Sie die vollen Vorteile der Bezugnahme auf Bonus bekommen.
+3.Erklärung: Um die Vorteile der Nutzer zu schützen, werden Benutzer, die auf unangemessene Weise einladen, Menschen einladen, zur Teilnahme an dieser Veranstaltung disqualifiziert und entsprechende Belohnungen werden abgezogen.</t>
+  </si>
+  <si>
+    <t>Rules_FriendEventExpect</t>
+  </si>
+  <si>
+    <t>To get cash, the invited friends need to reach the corresponding level every day.
+1.$0.01——1st day：Lv3
+2.$0.01——2nd day：Lv8
+3.$0.01——3rd day：Lv10
+4.$0.01——4th day：Lv15
+5.$0.01——5th day：Lv20
+6.$0.01——6th day：Lv25
+7.$0.44——7th day：Lv30</t>
+  </si>
+  <si>
+    <t>Чтобы получить наличные, приглашенные друзья должны ежедневно достигать соответствующего уровня.Чтобы получить наличные, приглашенные друзья должны ежедневно достигать соответствующего уровня.
+1.$0.01——1 день ：3 ур.
+2.$0.01——2 день ：8 ур.
+3.$0.01——3 день ：10 ур.
+4.$0.01——4 день ：15 ур.
+5.$0.01——5 день ：20 ур.
+6.$0.01——6 день ：25 ур.
+7.$0.44——7 день ：30 ур.</t>
+  </si>
+  <si>
+    <t>現金を手に入れるには、招待された友達は毎日対応するレベルに到達する必要があります。
+1.$ 0.01——初日：Lv3
+2.$ 0.01——2日目：Lv8
+3.$ 0.01——3日目：Lv10
+4.$ 0.01——4日目：Lv15
+5.$ 0.01——5日目：Lv20
+6.$ 0.01——6日目：Lv25
+7.$ 0.44——7日目：Lv30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>현금을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>얻으려면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친구가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>매일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>레벨에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>도달해야합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+1.$ 0.01——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>첫날</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv3
+2.$ 0.01——2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv8
+3.$ 0.01——3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv10
+4.$ 0.01——4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv15
+5.$ 0.01——5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv20
+6.$ 0.01——6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv25
+7.$ 0.44——7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> : Lv30</t>
+    </r>
+  </si>
+  <si>
+    <t>Um Geld zu bekommen, müssen die eingeladenen Freunde jeden Tag das entsprechende Level erreichen.
+1.$ 0.01——1. Tag: Lv3
+2.$ 0.01——2. Tag: Lv8
+3.$ 0.01——3. Tag: Lv10
+4.$ 0.01——4. Tag: Lv15
+5.$ 0.01——5. Tag: Lv20
+6.$ 0.01——6. Tag: Lv25
+7.$ 0.44——7. Tag: Lv30</t>
+  </si>
+  <si>
+    <t>Rules_Rules</t>
+  </si>
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>ПРАВИЛА</t>
+  </si>
+  <si>
+    <t>ルール</t>
+  </si>
+  <si>
+    <t>규칙</t>
+  </si>
+  <si>
+    <t>Regel</t>
+  </si>
+  <si>
+    <t>Rules_RewardsDescription</t>
+  </si>
+  <si>
+    <t>REWARDS DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ОПИСАНИЕ НАГРАД</t>
+  </si>
+  <si>
+    <t>報酬の説明</t>
+  </si>
+  <si>
+    <t>보상 설명</t>
+  </si>
+  <si>
+    <t>BELOHNEN BESCHREIBUNG</t>
+  </si>
+  <si>
     <t>Invite_word</t>
   </si>
   <si>
@@ -11541,6 +12398,252 @@
   </si>
   <si>
     <t>Ich habe $ 5 im Spiel verdient, du kannst es versuchen.</t>
+  </si>
+  <si>
+    <t>Sign_ExtraBonusTitle</t>
+  </si>
+  <si>
+    <t>Extra bonus for last day:</t>
+  </si>
+  <si>
+    <t>Дополнительный бонус за последний день:</t>
+  </si>
+  <si>
+    <t>最終日の追加ボーナス：</t>
+  </si>
+  <si>
+    <t>마지막 날에 대한 추가 보너스 :</t>
+  </si>
+  <si>
+    <t>Zusätzlicher Bonus für den letzten Tag:</t>
+  </si>
+  <si>
+    <t>Sign_DailySignin</t>
+  </si>
+  <si>
+    <t>Daily sign in</t>
+  </si>
+  <si>
+    <t>Ежедневный вход</t>
+  </si>
+  <si>
+    <t>毎日のサインイン</t>
+  </si>
+  <si>
+    <t>매일 로그인</t>
+  </si>
+  <si>
+    <t>Tägliche Anmeldung</t>
+  </si>
+  <si>
+    <t>Sign_Checkin</t>
+  </si>
+  <si>
+    <t>Check in</t>
+  </si>
+  <si>
+    <t>Отметиться</t>
+  </si>
+  <si>
+    <t>チェックイン</t>
+  </si>
+  <si>
+    <t>체크인</t>
+  </si>
+  <si>
+    <t>Check-In</t>
+  </si>
+  <si>
+    <t>Sign_Tip</t>
+  </si>
+  <si>
+    <t>You can't get $50 cause failed of 14-Day task, withdraw bonus left.</t>
+  </si>
+  <si>
+    <t>Вы не можете получить $ 50 причин не удалось из задачи 14-день, вывести бонус влево.</t>
+  </si>
+  <si>
+    <t>14日間のタスクが失敗したため、50ドルを獲得することはできません。ボーナスを残して、引き出してください。</t>
+  </si>
+  <si>
+    <t>14 일 작업에 실패하여 $ 50를받을 수 없습니다. 보너스를 왼쪽으로 인출하세요.</t>
+  </si>
+  <si>
+    <t>Sie können keine 50 $ erhalten, weil die 14-Tage-Aufgabe fehlgeschlagen ist, ziehen Sie den verbleibenden Bonus ab.</t>
+  </si>
+  <si>
+    <t>Sign_Day</t>
+  </si>
+  <si>
+    <t>Day {0}</t>
+  </si>
+  <si>
+    <t>День {0}</t>
+  </si>
+  <si>
+    <t>日{0}</t>
+  </si>
+  <si>
+    <t>일 {0}</t>
+  </si>
+  <si>
+    <t>Tag {0}</t>
+  </si>
+  <si>
+    <t>SignTask_Title</t>
+  </si>
+  <si>
+    <t>CHECK IN TASK</t>
+  </si>
+  <si>
+    <t>ПРОВЕРИТЬ ЗАДАЧУ</t>
+  </si>
+  <si>
+    <t>작업 확인</t>
+  </si>
+  <si>
+    <t>AUFGABE IN TASK</t>
+  </si>
+  <si>
+    <t>SignTask_Tip</t>
+  </si>
+  <si>
+    <t>You need to complete task before check in</t>
+  </si>
+  <si>
+    <t>Вам нужно выполнить задачу до прибытия.</t>
+  </si>
+  <si>
+    <t>チェックインする前にタスクを完了する必要があります。</t>
+  </si>
+  <si>
+    <t>체크인 전에 작업을 완료해야합니다.</t>
+  </si>
+  <si>
+    <t>Sie müssen die Aufgabe vor dem Einchecken absolvieren.</t>
+  </si>
+  <si>
+    <t>SignTask_Endin</t>
+  </si>
+  <si>
+    <t>End in {0}</t>
+  </si>
+  <si>
+    <t>Конец через {0}</t>
+  </si>
+  <si>
+    <t>{0}で終了</t>
+  </si>
+  <si>
+    <t>{0}로 끝남</t>
+  </si>
+  <si>
+    <t>InputInviteCode_Placeholder</t>
+  </si>
+  <si>
+    <t>Enter invite code</t>
+  </si>
+  <si>
+    <t>Введите инвайт-код</t>
+  </si>
+  <si>
+    <t>招待状を入力します。</t>
+  </si>
+  <si>
+    <t>초대 코드 입력</t>
+  </si>
+  <si>
+    <t>Geben Sie den Einladungscode</t>
+  </si>
+  <si>
+    <t>InputInviteCode_Ok</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>bestätigen</t>
+  </si>
+  <si>
+    <t>InputInviteCode_TimeDown</t>
+  </si>
+  <si>
+    <t>Close in {0}</t>
+  </si>
+  <si>
+    <t>Закрыть в {0}</t>
+  </si>
+  <si>
+    <t>{0}で閉じる</t>
+  </si>
+  <si>
+    <t>닫기 {0}</t>
+  </si>
+  <si>
+    <t>Schließen in {0}</t>
+  </si>
+  <si>
+    <t>InputInviteCode_BindFail</t>
+  </si>
+  <si>
+    <t>code is not exist.</t>
+  </si>
+  <si>
+    <t>код не существует.</t>
+  </si>
+  <si>
+    <t>コードが存在しません。</t>
+  </si>
+  <si>
+    <t>코드가 없습니다.</t>
+  </si>
+  <si>
+    <t>Code ist nicht vorhanden.</t>
+  </si>
+  <si>
+    <t>InputInviteCode_BindSuccess</t>
+  </si>
+  <si>
+    <t>bind succeed.</t>
+  </si>
+  <si>
+    <t>привязать успешно.</t>
+  </si>
+  <si>
+    <t>バインド成功します</t>
+  </si>
+  <si>
+    <t>바인드 성공.</t>
+  </si>
+  <si>
+    <t>binden erfolgreich</t>
+  </si>
+  <si>
+    <t>QuitPlaySlots_Title</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>QuitPlaySlots_Tip</t>
+  </si>
+  <si>
+    <t>Do you want to give up rest time of game?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -11548,9 +12651,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -11586,28 +12689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11630,7 +12712,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11660,36 +12778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -11701,13 +12789,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11730,6 +12811,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -11741,12 +12844,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -11756,163 +12871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11930,7 +12889,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11942,7 +12949,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11994,26 +13103,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12033,26 +13129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12064,6 +13140,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12082,6 +13167,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12090,10 +13199,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12102,150 +13211,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12281,23 +13396,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12308,17 +13414,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -12404,7 +13519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="330835" y="12065"/>
-          <a:ext cx="1914525" cy="638175"/>
+          <a:ext cx="2196465" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12448,7 +13563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5715" y="214630"/>
-          <a:ext cx="2242185" cy="433070"/>
+          <a:ext cx="2524125" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12492,7 +13607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="330835" y="12065"/>
-          <a:ext cx="1914525" cy="638175"/>
+          <a:ext cx="2196465" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12536,7 +13651,1943 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5715" y="214630"/>
-          <a:ext cx="2242185" cy="433070"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330835" y="12065"/>
+          <a:ext cx="2196465" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2524125" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12849,2775 +15900,3467 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A157" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B93" sqref="B93"/>
+      <selection pane="topRight" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="130.433333333333" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="33.075" style="7" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="8" customWidth="1"/>
+    <col min="3" max="3" width="104.458333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="105.541666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="118.583333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="130.433333333333" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:6">
+      <c r="A26" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14" t="s">
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="11" t="s">
         <v>204</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B39" s="15" t="s">
+    <row r="39" s="2" customFormat="1" spans="1:6">
+      <c r="A39" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>210</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="15" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:6">
+      <c r="A40" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>212</v>
+      <c r="E40" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="41" s="2" customFormat="1" spans="1:6">
+      <c r="A41" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="B41" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>221</v>
       </c>
+      <c r="E41" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="17" t="s">
+    <row r="42" s="2" customFormat="1" spans="1:6">
+      <c r="A42" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>227</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="A43" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="C43" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="D43" s="11" t="s">
         <v>233</v>
       </c>
+      <c r="E43" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="9" t="s">
+    <row r="44" s="2" customFormat="1" spans="1:6">
+      <c r="A44" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="B44" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>235</v>
+      <c r="D44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="9" t="s">
+    <row r="45" s="2" customFormat="1" spans="1:6">
+      <c r="A45" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="D45" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="E45" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B46" s="15" t="s">
+    <row r="46" s="2" customFormat="1" spans="1:6">
+      <c r="A46" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="14" t="s">
+    <row r="47" s="2" customFormat="1" spans="1:6">
+      <c r="A47" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:6">
+      <c r="A48" s="16" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="14" t="s">
+      <c r="B48" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="D48" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="E48" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="F48" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="D49" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="E49" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="F49" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="D50" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E50" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>274</v>
+      <c r="F50" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="E51" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="F51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>276</v>
-      </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="11" t="s">
         <v>288</v>
       </c>
+      <c r="F53" s="20" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B54" s="15" t="s">
+    <row r="54" s="4" customFormat="1" spans="1:6">
+      <c r="A54" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="E54" s="11" t="s">
         <v>294</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>336</v>
+      <c r="D61" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="E62" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="F62" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D62" s="9" t="s">
+    </row>
+    <row r="63" s="4" customFormat="1" spans="1:6">
+      <c r="A63" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="B63" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="C63" s="20" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="14" t="s">
+      <c r="D63" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="F63" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="F64" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="F65" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="F66" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="E67" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="F67" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="D68" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="E68" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="F68" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="E69" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>388</v>
+      <c r="D71" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="9" t="s">
+      <c r="A72" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="B72" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="C72" s="11" t="s">
         <v>395</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="A73" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="B73" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="C73" s="11" t="s">
         <v>401</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="A74" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="B74" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="C74" s="11" t="s">
         <v>407</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="A75" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="B75" s="17" t="s">
         <v>412</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="A76" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="B76" s="17" t="s">
         <v>418</v>
       </c>
+      <c r="C76" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="F77" s="9" t="s">
+    <row r="77" s="5" customFormat="1" spans="1:6">
+      <c r="A77" s="16" t="s">
         <v>423</v>
       </c>
+      <c r="B77" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F78" s="9" t="s">
+    <row r="78" s="5" customFormat="1" spans="1:6">
+      <c r="A78" s="16" t="s">
         <v>429</v>
       </c>
+      <c r="B78" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:6">
-      <c r="A79" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="E79" s="24" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="B79" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>435</v>
       </c>
+      <c r="D79" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:6">
-      <c r="A80" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80" s="24" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="B80" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="C80" s="11" t="s">
         <v>441</v>
       </c>
+      <c r="D80" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:6">
-      <c r="A81" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D81" s="24" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="B81" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="D81" s="11" t="s">
         <v>447</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="A82" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="11" t="s">
         <v>453</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="A83" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="C83" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>458</v>
+      <c r="E83" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="F84" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="F84" s="9" t="s">
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="16" t="s">
         <v>464</v>
       </c>
+      <c r="B85" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="85" ht="66" spans="1:6">
-      <c r="A85" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="F85" s="16" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="16" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="86" ht="33" spans="1:6">
-      <c r="A86" s="14" t="s">
+      <c r="B86" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="D86" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="E86" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="F86" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="F87" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="D88" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="E88" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="F88" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="D89" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="F89" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="E90" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="F90" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="D91" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="E91" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="F91" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="E91" s="9" t="s">
+    </row>
+    <row r="92" s="6" customFormat="1" spans="1:6">
+      <c r="A92" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="B92" s="23" t="s">
         <v>505</v>
       </c>
+      <c r="C92" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E92" s="9" t="s">
+    <row r="93" s="6" customFormat="1" spans="1:6">
+      <c r="A93" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="B93" s="23" t="s">
         <v>511</v>
       </c>
+      <c r="C93" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="93" ht="33" spans="1:6">
-      <c r="A93" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="E93" s="16" t="s">
+    <row r="94" s="6" customFormat="1" spans="1:6">
+      <c r="A94" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="B94" s="17" t="s">
         <v>517</v>
       </c>
+      <c r="C94" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>521</v>
+      </c>
     </row>
-    <row r="94" ht="33" spans="1:6">
-      <c r="A94" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E94" s="16" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="B95" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="95" ht="33" spans="1:6">
-      <c r="A95" s="14" t="s">
+      <c r="D95" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="E95" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="F95" s="11" t="s">
         <v>526</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="E96" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="F96" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="D96" s="9" t="s">
+    </row>
+    <row r="97" ht="66" spans="1:6">
+      <c r="A97" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="B97" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="C97" s="19" t="s">
         <v>535</v>
       </c>
+      <c r="D97" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="D97" s="9" t="s">
+    <row r="98" ht="33" spans="1:6">
+      <c r="A98" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="B98" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="C98" s="19" t="s">
         <v>541</v>
       </c>
+      <c r="D98" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="D98" s="9" t="s">
+    <row r="99" spans="1:6">
+      <c r="A99" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="B99" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="C99" s="11" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="99" s="4" customFormat="1" spans="1:6">
-      <c r="A99" s="25" t="s">
+      <c r="D99" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="E99" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="F99" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="D100" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="11" t="s">
         <v>555</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="A101" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="B101" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="C101" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="D101" s="11" t="s">
         <v>560</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="A102" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="B102" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="D102" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="11" t="s">
         <v>566</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="A103" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="B103" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="C103" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="D103" s="11" t="s">
         <v>571</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="A104" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="B104" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="C104" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="D104" s="20" t="s">
         <v>577</v>
       </c>
+      <c r="E104" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>579</v>
+      </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C105" s="9" t="s">
+    <row r="105" ht="33" spans="1:6">
+      <c r="A105" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="B105" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="C105" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="D105" s="19" t="s">
         <v>583</v>
       </c>
+      <c r="E105" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>585</v>
+      </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C106" s="9" t="s">
+    <row r="106" ht="33" spans="1:6">
+      <c r="A106" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="B106" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="C106" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="D106" s="19" t="s">
         <v>589</v>
       </c>
+      <c r="E106" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="C107" s="9" t="s">
+    <row r="107" ht="33" spans="1:6">
+      <c r="A107" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="B107" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="C107" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="F107" s="9" t="s">
-        <v>43</v>
+      <c r="D107" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="D108" s="9" t="s">
+      <c r="A108" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="B108" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="C108" s="11" t="s">
         <v>600</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="A109" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="B109" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="C109" s="11" t="s">
         <v>606</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="D110" s="9" t="s">
+      <c r="A110" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="B110" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="C110" s="11" t="s">
         <v>612</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="D111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="B111" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="C111" s="11" t="s">
         <v>618</v>
       </c>
+      <c r="D111" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>621</v>
+      </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="D112" s="17" t="s">
+    <row r="112" s="5" customFormat="1" spans="1:6">
+      <c r="A112" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="B112" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="C112" s="11" t="s">
         <v>624</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="D113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="B113" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="D113" s="11" t="s">
         <v>630</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="C114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="B114" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="C114" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="D114" s="11" t="s">
         <v>636</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="A115" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="B115" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="D115" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="E115" s="11" t="s">
         <v>642</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="C116" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="D116" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="E116" s="11" t="s">
         <v>648</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="B117" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="C117" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="D117" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="E117" s="11" t="s">
         <v>654</v>
       </c>
+      <c r="F117" s="11" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="B118" s="15" t="s">
+    <row r="118" s="2" customFormat="1" spans="1:6">
+      <c r="A118" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="C118" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="D118" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="E118" s="11" t="s">
         <v>660</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="C119" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="E119" s="11" t="s">
         <v>666</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="B120" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="C120" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="D120" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="E120" s="11" t="s">
         <v>672</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="11" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="11" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="11" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="11" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="11" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="11" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="11" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="128" ht="66" spans="1:6">
-      <c r="A128" s="14" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="11" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="11" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="E130" s="9" t="s">
+      <c r="D130" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="E130" s="11" t="s">
         <v>731</v>
       </c>
+      <c r="F130" s="11" t="s">
+        <v>732</v>
+      </c>
     </row>
-    <row r="131" ht="82.5" spans="1:6">
-      <c r="A131" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="B131" s="15" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="B131" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="C131" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="E131" s="11" t="s">
         <v>737</v>
       </c>
+      <c r="F131" s="11" t="s">
+        <v>738</v>
+      </c>
     </row>
-    <row r="132" ht="66" spans="1:6">
-      <c r="A132" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="B132" s="15" t="s">
+    <row r="132" spans="1:6">
+      <c r="A132" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="B132" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="C132" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="D132" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="F132" s="16" t="s">
-        <v>742</v>
+      <c r="E132" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
-    <row r="133" ht="115.5" spans="1:6">
-      <c r="A133" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="C133" s="28" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="B133" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="C133" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="D133" s="11" t="s">
         <v>748</v>
       </c>
+      <c r="E133" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>750</v>
+      </c>
     </row>
-    <row r="134" ht="66" spans="1:6">
-      <c r="A134" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="C134" s="16" t="s">
+    <row r="134" spans="1:6">
+      <c r="A134" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="B134" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="C134" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="F134" s="16" t="s">
+      <c r="D134" s="11" t="s">
         <v>754</v>
       </c>
+      <c r="E134" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>756</v>
+      </c>
     </row>
-    <row r="135" ht="132" spans="1:6">
-      <c r="A135" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="C135" s="16" t="s">
+    <row r="135" spans="1:6">
+      <c r="A135" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="B135" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="C135" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="D135" s="20" t="s">
         <v>760</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="C136" s="17" t="s">
+      <c r="A136" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="B136" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="C136" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="D136" s="11" t="s">
         <v>766</v>
       </c>
+      <c r="E136" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>768</v>
+      </c>
     </row>
-    <row r="137" ht="82.5" spans="1:6">
-      <c r="A137" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="C137" s="16" t="s">
+    <row r="137" spans="1:6">
+      <c r="A137" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="B137" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="C137" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="D137" s="11" t="s">
         <v>772</v>
       </c>
+      <c r="E137" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>774</v>
+      </c>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:6">
-      <c r="A138" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="C138" s="9" t="s">
+    <row r="138" spans="1:6">
+      <c r="A138" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="B138" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="C138" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="D138" s="11" t="s">
         <v>778</v>
       </c>
+      <c r="E138" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>780</v>
+      </c>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:6">
-      <c r="A139" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="C139" s="17" t="s">
+    <row r="139" spans="1:6">
+      <c r="A139" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="B139" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="C139" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="D139" s="11" t="s">
         <v>784</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:6">
+      <c r="A141" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" spans="1:6">
+      <c r="A142" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" ht="66" spans="1:6">
+      <c r="A143" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="146" ht="82.5" spans="1:6">
+      <c r="A146" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="147" ht="66" spans="1:6">
+      <c r="A147" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="148" ht="115.5" spans="1:6">
+      <c r="A148" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="149" ht="66" spans="1:6">
+      <c r="A149" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="150" ht="132" spans="1:6">
+      <c r="A150" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="152" ht="82.5" spans="1:6">
+      <c r="A152" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="154" s="4" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A154" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="155" s="5" customFormat="1" ht="115.5" spans="1:6">
+      <c r="A155" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="156" s="6" customFormat="1" ht="148.5" spans="1:6">
+      <c r="A156" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="157" s="6" customFormat="1" spans="1:6">
+      <c r="A157" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" spans="1:6">
+      <c r="A158" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:6">
+      <c r="A159" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="160" s="4" customFormat="1" spans="1:6">
+      <c r="A160" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="E160" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="F160" s="20" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="161" s="5" customFormat="1" spans="1:6">
+      <c r="A161" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="162" s="5" customFormat="1" spans="1:6">
+      <c r="A162" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="163" s="5" customFormat="1" spans="1:6">
+      <c r="A163" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="164" s="5" customFormat="1" spans="1:6">
+      <c r="A164" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="165" s="5" customFormat="1" spans="1:6">
+      <c r="A165" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="166" s="5" customFormat="1" spans="1:6">
+      <c r="A166" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="F166" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="167" s="5" customFormat="1" spans="1:6">
+      <c r="A167" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="F167" s="20" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" spans="1:6">
+      <c r="A168" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="F168" s="20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" spans="1:6">
+      <c r="A169" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" spans="1:6">
+      <c r="A170" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" spans="1:6">
+      <c r="A171" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="F171" s="20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="1:6">
+      <c r="A172" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" spans="1:2">
+      <c r="A173" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:2">
+      <c r="A174" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" spans="1:2">
+      <c r="A175" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="1:2">
+      <c r="A176" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1002">
   <si>
     <t xml:space="preserve">内                                          国 </t>
   </si>
@@ -7623,6 +7623,18 @@
   </si>
   <si>
     <t>You must wait for the review to end</t>
+  </si>
+  <si>
+    <t>Вы должны ждать обзора до конца</t>
+  </si>
+  <si>
+    <t>レビューが終了するまで待つ必要があります</t>
+  </si>
+  <si>
+    <t>검토가 끝날 때까지 기다려야합니다.</t>
+  </si>
+  <si>
+    <t>Sie müssen für die Überprüfung zu Ende warten</t>
   </si>
   <si>
     <t>Rules_PlaySlots</t>
@@ -12634,16 +12646,168 @@
     <t>RETURN</t>
   </si>
   <si>
+    <t>ВЕРНУТЬ</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>반환</t>
+  </si>
+  <si>
+    <t>RÜCKKEHR</t>
+  </si>
+  <si>
     <t>QuitPlaySlots_Tip</t>
   </si>
   <si>
     <t>Do you want to give up rest time of game?</t>
   </si>
   <si>
+    <t>Вы хотите отказаться от времени отдыха в игре?</t>
+  </si>
+  <si>
+    <t>あなたはこのゲームの残り時間を放棄しますか？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>당신은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>휴식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>시간에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>게임을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>포기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Gibst du die verbleibende Anzahl dieses Spiels auf?</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>아니</t>
+  </si>
+  <si>
+    <t>NEIN</t>
+  </si>
+  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>ДА</t>
+  </si>
+  <si>
+    <t>예</t>
+  </si>
+  <si>
+    <t>JA</t>
   </si>
 </sst>
 </file>
@@ -12656,7 +12820,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12689,30 +12853,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12727,28 +12875,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12778,6 +12904,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -12794,11 +12935,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12817,16 +12989,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12843,8 +13007,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12853,25 +13023,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12883,175 +13203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13094,26 +13246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13125,6 +13257,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13146,33 +13311,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13191,6 +13334,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13199,10 +13351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13211,162 +13363,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13375,9 +13524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13385,12 +13531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13411,17 +13551,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13431,9 +13562,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -15902,3465 +16030,3521 @@
   <sheetPr/>
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A157" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B169" sqref="B169"/>
+      <selection pane="topRight" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.075" style="7" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="8" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="105.541666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="118.583333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="130.433333333333" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="33.075" style="6" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="104.458333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="105.541666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="118.583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="130.433333333333" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
-      <c r="A30" s="16" t="s">
+    <row r="30" s="2" customFormat="1" spans="1:6">
+      <c r="A30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:6">
-      <c r="A54" s="16" t="s">
+    <row r="54" s="3" customFormat="1" spans="1:6">
+      <c r="A54" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:6">
-      <c r="A63" s="16" t="s">
+    <row r="63" s="3" customFormat="1" spans="1:6">
+      <c r="A63" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="5" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="5" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" s="5" customFormat="1" spans="1:6">
-      <c r="A77" s="16" t="s">
+    <row r="77" s="2" customFormat="1" spans="1:6">
+      <c r="A77" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="1" spans="1:6">
-      <c r="A78" s="16" t="s">
+    <row r="78" s="2" customFormat="1" spans="1:6">
+      <c r="A78" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="5" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="5" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="5" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="5" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="5" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" spans="1:6">
-      <c r="A92" s="16" t="s">
+    <row r="92" s="3" customFormat="1" spans="1:6">
+      <c r="A92" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="93" s="6" customFormat="1" spans="1:6">
-      <c r="A93" s="16" t="s">
+    <row r="93" s="3" customFormat="1" spans="1:6">
+      <c r="A93" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="7" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="94" s="6" customFormat="1" spans="1:6">
-      <c r="A94" s="16" t="s">
+    <row r="94" s="3" customFormat="1" spans="1:6">
+      <c r="A94" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="5" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="5" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="5" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="5" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="5" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="5" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="5" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="5" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="15" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="15" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="15" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="5" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="5" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="5" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="1" spans="1:6">
-      <c r="A112" s="16" t="s">
+    <row r="112" s="2" customFormat="1" spans="1:6">
+      <c r="A112" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="5" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="5" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="5" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="5" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="5" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="5" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="5" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="5" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="5" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="5" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="5" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="5" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="5" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="5" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="5" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="5" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" s="5" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="16" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="5" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="5" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" s="5" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="5" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="141" s="4" customFormat="1" spans="1:6">
-      <c r="A141" s="16" t="s">
+    <row r="141" s="3" customFormat="1" spans="1:6">
+      <c r="A141" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="20" t="s">
+      <c r="F141" s="16" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
+      <c r="C142" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="143" ht="66" spans="1:6">
-      <c r="A143" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="E143" s="19" t="s">
+      <c r="A143" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="F143" s="19" t="s">
+      <c r="B143" s="13" t="s">
         <v>806</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="E144" s="11" t="s">
+      <c r="A144" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="B144" s="13" t="s">
         <v>812</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="D145" s="11" t="s">
+      <c r="A145" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="E145" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>817</v>
+      <c r="E145" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
-      <c r="A146" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="E146" s="19" t="s">
+      <c r="A146" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="F146" s="19" t="s">
+      <c r="B146" s="13" t="s">
         <v>823</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
-      <c r="A147" s="16" t="s">
-        <v>824</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>826</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="E147" s="19" t="s">
+      <c r="A147" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="F147" s="19" t="s">
-        <v>828</v>
+      <c r="B147" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
-      <c r="A148" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="E148" s="19" t="s">
+      <c r="A148" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="F148" s="19" t="s">
+      <c r="B148" s="13" t="s">
         <v>834</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
-      <c r="A149" s="16" t="s">
-        <v>835</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>837</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>838</v>
-      </c>
-      <c r="E149" s="19" t="s">
+      <c r="A149" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="F149" s="19" t="s">
+      <c r="B149" s="13" t="s">
         <v>840</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
-      <c r="A150" s="16" t="s">
-        <v>841</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>843</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="E150" s="19" t="s">
+      <c r="A150" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="F150" s="19" t="s">
+      <c r="B150" s="13" t="s">
         <v>846</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="16" t="s">
-        <v>847</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="E151" s="11" t="s">
+      <c r="A151" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="B151" s="13" t="s">
         <v>852</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
-      <c r="A152" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>855</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>856</v>
-      </c>
-      <c r="E152" s="19" t="s">
+      <c r="A152" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="B152" s="13" t="s">
         <v>858</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="E153" s="20" t="s">
+      <c r="A153" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="F153" s="20" t="s">
+      <c r="B153" s="7" t="s">
         <v>864</v>
       </c>
+      <c r="C153" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>868</v>
+      </c>
     </row>
-    <row r="154" s="4" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A154" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>868</v>
-      </c>
-      <c r="E154" s="19" t="s">
+    <row r="154" s="3" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A154" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="B154" s="13" t="s">
         <v>870</v>
       </c>
+      <c r="C154" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>874</v>
+      </c>
     </row>
-    <row r="155" s="5" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A155" s="16" t="s">
-        <v>871</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>873</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>874</v>
-      </c>
-      <c r="E155" s="19" t="s">
+    <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
+      <c r="A155" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="B155" s="13" t="s">
         <v>876</v>
       </c>
+      <c r="C155" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>880</v>
+      </c>
     </row>
-    <row r="156" s="6" customFormat="1" ht="148.5" spans="1:6">
-      <c r="A156" s="16" t="s">
-        <v>877</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>879</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>880</v>
-      </c>
-      <c r="E156" s="28" t="s">
+    <row r="156" s="3" customFormat="1" ht="148.5" spans="1:6">
+      <c r="A156" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="B156" s="13" t="s">
         <v>882</v>
       </c>
+      <c r="C156" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>886</v>
+      </c>
     </row>
-    <row r="157" s="6" customFormat="1" spans="1:6">
-      <c r="A157" s="16" t="s">
-        <v>883</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="E157" s="20" t="s">
+    <row r="157" s="3" customFormat="1" spans="1:6">
+      <c r="A157" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="F157" s="20" t="s">
+      <c r="B157" s="16" t="s">
         <v>888</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>890</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
-      <c r="A158" s="16" t="s">
-        <v>889</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="E158" s="29" t="s">
+      <c r="A158" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="B158" s="13" t="s">
         <v>894</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
-      <c r="A159" s="16" t="s">
-        <v>895</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>896</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="E159" s="20" t="s">
+      <c r="A159" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="B159" s="7" t="s">
         <v>900</v>
       </c>
+      <c r="C159" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:6">
-      <c r="A160" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>902</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>903</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="E160" s="20" t="s">
+    <row r="160" s="3" customFormat="1" spans="1:6">
+      <c r="A160" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="F160" s="20" t="s">
+      <c r="B160" s="7" t="s">
         <v>906</v>
       </c>
+      <c r="C160" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>910</v>
+      </c>
     </row>
-    <row r="161" s="5" customFormat="1" spans="1:6">
-      <c r="A161" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>908</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>909</v>
-      </c>
-      <c r="D161" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="E161" s="20" t="s">
+    <row r="161" s="2" customFormat="1" spans="1:6">
+      <c r="A161" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="F161" s="20" t="s">
+      <c r="B161" s="7" t="s">
         <v>912</v>
       </c>
+      <c r="C161" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>916</v>
+      </c>
     </row>
-    <row r="162" s="5" customFormat="1" spans="1:6">
-      <c r="A162" s="16" t="s">
-        <v>913</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>914</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>915</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="E162" s="20" t="s">
+    <row r="162" s="2" customFormat="1" spans="1:6">
+      <c r="A162" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="F162" s="20" t="s">
+      <c r="B162" s="7" t="s">
         <v>918</v>
       </c>
+      <c r="C162" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>922</v>
+      </c>
     </row>
-    <row r="163" s="5" customFormat="1" spans="1:6">
-      <c r="A163" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="B163" s="23" t="s">
-        <v>920</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>921</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="E163" s="20" t="s">
+    <row r="163" s="2" customFormat="1" spans="1:6">
+      <c r="A163" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="F163" s="20" t="s">
+      <c r="B163" s="7" t="s">
         <v>924</v>
       </c>
+      <c r="C163" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>928</v>
+      </c>
     </row>
-    <row r="164" s="5" customFormat="1" spans="1:6">
-      <c r="A164" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>926</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="D164" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="E164" s="20" t="s">
+    <row r="164" s="2" customFormat="1" spans="1:6">
+      <c r="A164" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="F164" s="20" t="s">
+      <c r="B164" s="7" t="s">
         <v>930</v>
       </c>
+      <c r="C164" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>934</v>
+      </c>
     </row>
-    <row r="165" s="5" customFormat="1" spans="1:6">
-      <c r="A165" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>933</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="F165" s="20" t="s">
+    <row r="165" s="2" customFormat="1" spans="1:6">
+      <c r="A165" s="6" t="s">
         <v>935</v>
       </c>
+      <c r="B165" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>939</v>
+      </c>
     </row>
-    <row r="166" s="5" customFormat="1" spans="1:6">
-      <c r="A166" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="B166" s="23" t="s">
-        <v>937</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>938</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="E166" s="20" t="s">
+    <row r="166" s="2" customFormat="1" spans="1:6">
+      <c r="A166" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="F166" s="20" t="s">
+      <c r="B166" s="7" t="s">
         <v>941</v>
       </c>
+      <c r="C166" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>945</v>
+      </c>
     </row>
-    <row r="167" s="5" customFormat="1" spans="1:6">
-      <c r="A167" s="16" t="s">
-        <v>942</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>944</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="E167" s="20" t="s">
+    <row r="167" s="2" customFormat="1" spans="1:6">
+      <c r="A167" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="F167" s="20" t="s">
-        <v>943</v>
+      <c r="B167" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
-      <c r="A168" s="16" t="s">
-        <v>947</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>948</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>949</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>950</v>
-      </c>
-      <c r="E168" s="20" t="s">
+      <c r="A168" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="F168" s="20" t="s">
+      <c r="B168" s="16" t="s">
         <v>952</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
-      <c r="A169" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>954</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="D169" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="E169" s="20" t="s">
+      <c r="A169" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="B169" s="16" t="s">
         <v>958</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
-      <c r="A170" s="16" t="s">
-        <v>959</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>962</v>
-      </c>
-      <c r="E170" s="20" t="s">
+      <c r="A170" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="F170" s="20" t="s">
+      <c r="B170" s="16" t="s">
         <v>964</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
-      <c r="A171" s="16" t="s">
-        <v>965</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="E171" s="20" t="s">
+      <c r="A171" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="B171" s="16" t="s">
         <v>970</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
-      <c r="A172" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="D172" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="E172" s="20" t="s">
+      <c r="A172" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="F172" s="20" t="s">
+      <c r="B172" s="16" t="s">
         <v>976</v>
       </c>
+      <c r="C172" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>979</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>980</v>
+      </c>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:2">
-      <c r="A173" s="25" t="s">
-        <v>977</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>978</v>
+    <row r="173" s="4" customFormat="1" spans="1:6">
+      <c r="A173" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>986</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:2">
-      <c r="A174" s="25" t="s">
-        <v>979</v>
-      </c>
-      <c r="B174" s="30" t="s">
-        <v>980</v>
+    <row r="174" s="5" customFormat="1" spans="1:6">
+      <c r="A174" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>992</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:2">
-      <c r="A175" s="25" t="s">
-        <v>981</v>
-      </c>
-      <c r="B175" s="30" t="s">
-        <v>981</v>
+    <row r="175" s="4" customFormat="1" spans="1:6">
+      <c r="A175" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:2">
-      <c r="A176" s="25" t="s">
-        <v>982</v>
-      </c>
-      <c r="B176" s="30" t="s">
-        <v>982</v>
+    <row r="176" s="4" customFormat="1" spans="1:6">
+      <c r="A176" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1068">
   <si>
     <t xml:space="preserve">内                                          国 </t>
   </si>
@@ -12809,6 +12809,204 @@
   <si>
     <t>JA</t>
   </si>
+  <si>
+    <t>NewPlayerReward_Prize</t>
+  </si>
+  <si>
+    <t>Prize</t>
+  </si>
+  <si>
+    <t>Приз</t>
+  </si>
+  <si>
+    <t>賞品</t>
+  </si>
+  <si>
+    <t>포상</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Skip</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Пропустить</t>
+  </si>
+  <si>
+    <t>スキップ</t>
+  </si>
+  <si>
+    <t>건너 뛰기</t>
+  </si>
+  <si>
+    <t>Überspringen</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Tip</t>
+  </si>
+  <si>
+    <t>Win the jackpot and other cash prizes in the daily draw. You enter every draw automatically. The more Tickets you have, the higher your odds of winning are!</t>
+  </si>
+  <si>
+    <t>Выиграйте джекпот и другие денежные призы в ежедневном розыгрыше. Вы входите в каждый розыгрыш автоматически. Чем больше у вас билетов, тем выше ваши шансы на победу!</t>
+  </si>
+  <si>
+    <t>デイリードローでジャックポットやその他の賞金を獲得しましょう。 すべての抽選を自動的に入力します。 チケットが多ければ多いほど、勝つ確率は高くなります！</t>
+  </si>
+  <si>
+    <t>일일 추첨에서 대박 및 기타 상금을 받으십시오. 모든 추첨을 자동으로 입력합니다. 티켓이 많을수록 당첨 확률이 높아집니다!</t>
+  </si>
+  <si>
+    <t>Gewinnen Sie den Jackpot und andere Geldpreise im täglichen Remis. Sie geben jede Ziehung automatisch ein. Je mehr Tickets Sie haben, desto höher sind Ihre Gewinnquoten!</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_InputTip</t>
+  </si>
+  <si>
+    <t>Enter your Paypal email address</t>
+  </si>
+  <si>
+    <t>Введите свой адрес электронной почты Paypal</t>
+  </si>
+  <si>
+    <t>Paypalのメールアドレスを入力してください</t>
+  </si>
+  <si>
+    <t>Paypal 이메일 주소를 입력하세요.</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihre Paypal-E-Mail-Adresse ein</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_FrontRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have read and agree to the </t>
+  </si>
+  <si>
+    <t>Я прочитал и согласен с</t>
+  </si>
+  <si>
+    <t>私は読んで同意します</t>
+  </si>
+  <si>
+    <t>나는 읽고 동의합니다</t>
+  </si>
+  <si>
+    <t>Ich habe die gelesen und stimme ihnen zu</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_BehindRule</t>
+  </si>
+  <si>
+    <t>privacy terms and policies</t>
+  </si>
+  <si>
+    <t>условия и политика конфиденциальности</t>
+  </si>
+  <si>
+    <t>プライバシー規約とポリシー</t>
+  </si>
+  <si>
+    <t>개인 정보 보호 약관 및 정책</t>
+  </si>
+  <si>
+    <t>Datenschutzbestimmungen und -richtlinien</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_State</t>
+  </si>
+  <si>
+    <t>State: Reviewing</t>
+  </si>
+  <si>
+    <t>Состояние: Обзор</t>
+  </si>
+  <si>
+    <t>状態：レビュー</t>
+  </si>
+  <si>
+    <t>상태 : 검토 중</t>
+  </si>
+  <si>
+    <t>Status: Überprüfung</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>시각</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Orderid</t>
+  </si>
+  <si>
+    <t>Order id</t>
+  </si>
+  <si>
+    <t>Номер заказа</t>
+  </si>
+  <si>
+    <t>注文ID</t>
+  </si>
+  <si>
+    <t>주문 아이디</t>
+  </si>
+  <si>
+    <t>Auftragsnummer</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Account</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>アカウント</t>
+  </si>
+  <si>
+    <t>계정</t>
+  </si>
+  <si>
+    <t>Konto</t>
+  </si>
+  <si>
+    <t>NewPlayerReward_Next</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>следующий</t>
+  </si>
+  <si>
+    <t>次に</t>
+  </si>
+  <si>
+    <t>다음</t>
+  </si>
+  <si>
+    <t>Nächster</t>
+  </si>
 </sst>
 </file>
 
@@ -12816,9 +13014,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -12860,14 +13058,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12882,38 +13087,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12935,10 +13117,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12950,25 +13179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12977,20 +13189,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13023,7 +13221,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13035,7 +13257,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13053,49 +13383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13113,97 +13401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13247,6 +13445,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -13257,39 +13470,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13338,6 +13518,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -13351,10 +13549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13363,137 +13561,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13504,13 +13702,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -13562,6 +13757,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -16028,3523 +16232,3739 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F126" sqref="F126"/>
+      <selection pane="topRight" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.075" style="6" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="105.541666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="118.583333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="130.433333333333" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="33.075" style="5" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="130.433333333333" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:6">
-      <c r="A54" s="6" t="s">
+    <row r="54" s="2" customFormat="1" spans="1:6">
+      <c r="A54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:6">
-      <c r="A63" s="6" t="s">
+    <row r="63" s="2" customFormat="1" spans="1:6">
+      <c r="A63" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:6">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="3" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="3" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="1:6">
-      <c r="A92" s="6" t="s">
+    <row r="92" s="2" customFormat="1" spans="1:6">
+      <c r="A92" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" spans="1:6">
-      <c r="A93" s="6" t="s">
+    <row r="93" s="2" customFormat="1" spans="1:6">
+      <c r="A93" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:6">
-      <c r="A94" s="6" t="s">
+    <row r="94" s="2" customFormat="1" spans="1:6">
+      <c r="A94" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="3" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="3" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="3" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="3" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="3" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="3" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="3" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="3" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="14" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="14" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="3" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="3" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="3" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="3" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="3" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="3" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="3" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="3" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="3" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="3" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="3" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="3" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="3" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="3" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="3" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="3" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="3" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="15" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="3" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="3" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="3" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" spans="1:6">
-      <c r="A141" s="6" t="s">
+    <row r="141" s="2" customFormat="1" spans="1:6">
+      <c r="A141" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="15" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="15" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="143" ht="66" spans="1:6">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="F143" s="15" t="s">
+      <c r="F143" s="14" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="3" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="3" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="F146" s="15" t="s">
+      <c r="F146" s="14" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E147" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="F147" s="15" t="s">
+      <c r="F147" s="14" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="F148" s="15" t="s">
+      <c r="F148" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="F149" s="15" t="s">
+      <c r="F149" s="14" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="F150" s="15" t="s">
+      <c r="F150" s="14" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C151" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="3" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="D152" s="15" t="s">
+      <c r="D152" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="F152" s="15" t="s">
+      <c r="F152" s="14" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="D153" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="15" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="154" s="3" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A154" s="6" t="s">
+    <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
+      <c r="A154" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="E154" s="14" t="s">
         <v>873</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F154" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="14" t="s">
         <v>877</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E155" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="F155" s="17" t="s">
+      <c r="F155" s="16" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="156" s="3" customFormat="1" ht="148.5" spans="1:6">
-      <c r="A156" s="6" t="s">
+    <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
+      <c r="A156" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="16" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:6">
-      <c r="A157" s="6" t="s">
+    <row r="157" s="2" customFormat="1" spans="1:6">
+      <c r="A157" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="15" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="12" t="s">
         <v>894</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E158" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="16" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="D159" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="F159" s="16" t="s">
+      <c r="F159" s="15" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="160" s="3" customFormat="1" spans="1:6">
-      <c r="A160" s="6" t="s">
+    <row r="160" s="2" customFormat="1" spans="1:6">
+      <c r="A160" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D160" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="F160" s="16" t="s">
+      <c r="F160" s="15" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D161" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="F161" s="16" t="s">
+      <c r="F161" s="15" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D162" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="F162" s="16" t="s">
+      <c r="F162" s="15" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="F163" s="16" t="s">
+      <c r="F163" s="15" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D164" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="F164" s="16" t="s">
+      <c r="F164" s="15" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="F165" s="16" t="s">
+      <c r="F165" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="D166" s="16" t="s">
+      <c r="D166" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="F166" s="16" t="s">
+      <c r="F166" s="15" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="D167" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="F167" s="16" t="s">
+      <c r="F167" s="15" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="D168" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="F168" s="16" t="s">
+      <c r="F168" s="15" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="F169" s="16" t="s">
+      <c r="F169" s="15" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="C170" s="16" t="s">
+      <c r="C170" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="D170" s="16" t="s">
+      <c r="D170" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="F170" s="16" t="s">
+      <c r="F170" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C171" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="D171" s="16" t="s">
+      <c r="D171" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="F171" s="16" t="s">
+      <c r="F171" s="15" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="C172" s="16" t="s">
+      <c r="C172" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D172" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="F172" s="16" t="s">
+      <c r="F172" s="15" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="173" s="4" customFormat="1" spans="1:6">
-      <c r="A173" s="6" t="s">
+    <row r="173" s="3" customFormat="1" spans="1:6">
+      <c r="A173" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="1:6">
-      <c r="A174" s="6" t="s">
+    <row r="174" s="3" customFormat="1" spans="1:6">
+      <c r="A174" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="18" t="s">
         <v>990</v>
       </c>
-      <c r="E174" s="19" t="s">
+      <c r="E174" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="F174" s="19" t="s">
+      <c r="F174" s="18" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:6">
-      <c r="A175" s="6" t="s">
+    <row r="175" s="3" customFormat="1" spans="1:6">
+      <c r="A175" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="176" s="4" customFormat="1" spans="1:6">
-      <c r="A176" s="6" t="s">
+    <row r="176" s="3" customFormat="1" spans="1:6">
+      <c r="A176" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="3" t="s">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="177" s="4" customFormat="1" spans="1:6">
+      <c r="A177" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1" spans="1:6">
+      <c r="A178" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="179" s="4" customFormat="1" spans="1:6">
+      <c r="A179" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="180" s="4" customFormat="1" spans="1:6">
+      <c r="A180" s="22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1" spans="1:6">
+      <c r="A181" s="22" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="182" s="4" customFormat="1" spans="1:6">
+      <c r="A182" s="22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="183" s="4" customFormat="1" spans="1:6">
+      <c r="A183" s="22" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="184" s="4" customFormat="1" spans="1:6">
+      <c r="A184" s="22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="185" s="4" customFormat="1" spans="1:6">
+      <c r="A185" s="22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="186" s="4" customFormat="1" spans="1:6">
+      <c r="A186" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="187" s="4" customFormat="1" spans="1:6">
+      <c r="A187" s="22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -263,7 +263,7 @@
     <t>У вас есть билеты&lt;color=#FF8A01&gt;{0}&lt;/color&gt;Билеты</t>
   </si>
   <si>
-    <t>あなたが持っている&lt;color=＃FF8A01&gt;{0}&lt;/color&gt;チケット</t>
+    <t>あなたが持っている&lt;color=#FF8A01&gt;{0}&lt;/color&gt;チケット</t>
   </si>
   <si>
     <r>
@@ -547,7 +547,7 @@
     <t>У вас должны быть&lt;color=#F4D10F&gt;{0}&lt;/color&gt;билеты для участия в Lucky Draw.</t>
   </si>
   <si>
-    <t>ラッキードローに参加するには、 &lt;color=＃F4D10F&gt;{0}&lt;/color&gt;チケットが必要です。</t>
+    <t>ラッキードローに参加するには、 &lt;color=#F4D10F&gt;{0}&lt;/color&gt;チケットが必要です。</t>
   </si>
   <si>
     <r>
@@ -4586,7 +4586,7 @@
   </si>
   <si>
     <t>質問との私達に連絡
-&lt;color=＃1A91D0&gt; hispin.support@luckyclub.vip&lt;/color&gt;</t>
+&lt;color=#1A91D0&gt; hispin.support@luckyclub.vip&lt;/color&gt;</t>
   </si>
   <si>
     <r>
@@ -8965,10 +8965,10 @@
   </si>
   <si>
     <t>1.友達が広告を見てタスクを完了することでポイントを獲得できます。また、友達の友達からポイントを獲得することもできます。
-&lt;color=＃FFE200&gt;2.私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
+&lt;color=#FFE200&gt;2.私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
 3.毎日UTC10：00：00、友達からの昨日の収入を確認できます。
 ポイントはお金と交換できます。100,000ポイントは1米ドルに相当します。
-4.&lt;color=＃FFE200&gt;オファーのタスクを完了すると、巨大なポイントを獲得できます。&lt;/color&gt;</t>
+4.&lt;color=#FFE200&gt;オファーのタスクを完了すると、巨大なポイントを獲得できます。&lt;/color&gt;</t>
   </si>
   <si>
     <r>
@@ -13014,9 +13014,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -13051,43 +13051,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13101,32 +13065,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13141,15 +13081,84 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13163,24 +13172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13188,7 +13181,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13221,31 +13221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13269,19 +13257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13299,13 +13287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13317,7 +13311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13335,13 +13329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13353,13 +13359,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13371,37 +13395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13444,32 +13444,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13491,11 +13481,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13514,33 +13541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13549,10 +13549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13561,137 +13561,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13703,9 +13703,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -13757,15 +13754,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -16234,16 +16222,16 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A68" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B190" sqref="B190"/>
+      <selection pane="topRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.075" style="5" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.075" style="4" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
     <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
@@ -16252,10 +16240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -16272,26 +16260,26 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -16308,10 +16296,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -16328,10 +16316,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -16348,10 +16336,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -16368,10 +16356,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -16388,10 +16376,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -16408,10 +16396,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -16428,10 +16416,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -16448,10 +16436,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -16468,10 +16456,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -16488,10 +16476,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -16508,10 +16496,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -16528,10 +16516,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -16540,18 +16528,18 @@
       <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -16560,18 +16548,18 @@
       <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -16588,10 +16576,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -16608,10 +16596,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -16628,10 +16616,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -16648,10 +16636,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -16668,10 +16656,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -16688,10 +16676,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -16708,10 +16696,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -16728,10 +16716,10 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -16740,7 +16728,7 @@
       <c r="D26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -16748,10 +16736,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -16768,10 +16756,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -16788,10 +16776,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -16808,10 +16796,10 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -16828,10 +16816,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -16843,15 +16831,15 @@
       <c r="E31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -16868,30 +16856,30 @@
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -16908,10 +16896,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -16928,10 +16916,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -16948,10 +16936,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -16968,10 +16956,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -16988,10 +16976,10 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -17008,10 +16996,10 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -17028,10 +17016,10 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -17048,10 +17036,10 @@
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -17068,10 +17056,10 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -17088,10 +17076,10 @@
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -17108,10 +17096,10 @@
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -17128,10 +17116,10 @@
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -17148,10 +17136,10 @@
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>252</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -17168,10 +17156,10 @@
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -17188,10 +17176,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -17208,10 +17196,10 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>268</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -17228,10 +17216,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>273</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -17248,16 +17236,16 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>281</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -17268,10 +17256,10 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -17283,15 +17271,15 @@
       <c r="E53" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -17308,10 +17296,10 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -17328,10 +17316,10 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -17348,10 +17336,10 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -17368,10 +17356,10 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -17388,16 +17376,16 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>322</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -17408,10 +17396,10 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>326</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -17428,10 +17416,10 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -17448,10 +17436,10 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -17460,7 +17448,7 @@
       <c r="D62" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>338</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -17468,16 +17456,16 @@
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:6">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>287</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -17488,10 +17476,10 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>346</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -17508,10 +17496,10 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>352</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -17528,10 +17516,10 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>358</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -17548,10 +17536,10 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>364</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -17568,10 +17556,10 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>370</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -17588,10 +17576,10 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>376</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -17608,10 +17596,10 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -17628,10 +17616,10 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>388</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -17648,10 +17636,10 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>394</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -17668,10 +17656,10 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -17688,10 +17676,10 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -17708,10 +17696,10 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>412</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -17728,10 +17716,10 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -17740,7 +17728,7 @@
       <c r="D76" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>421</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -17748,10 +17736,10 @@
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:6">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>424</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -17760,7 +17748,7 @@
       <c r="D77" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>427</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -17768,10 +17756,10 @@
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>429</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -17788,10 +17776,10 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -17808,10 +17796,10 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -17828,10 +17816,10 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -17848,10 +17836,10 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>450</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -17868,10 +17856,10 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -17888,10 +17876,10 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>459</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -17908,10 +17896,10 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -17928,10 +17916,10 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>471</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -17948,10 +17936,10 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>477</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -17968,10 +17956,10 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>482</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -17988,10 +17976,10 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>488</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -18008,10 +17996,10 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>493</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -18028,70 +18016,70 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:6">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>517</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -18108,10 +18096,10 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>522</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -18128,10 +18116,10 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>528</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -18148,50 +18136,50 @@
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="13" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="13" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>546</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -18208,10 +18196,10 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>552</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -18228,10 +18216,10 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>558</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -18248,10 +18236,10 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>563</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -18268,10 +18256,10 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>569</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -18288,16 +18276,16 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14" t="s">
         <v>577</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -18308,70 +18296,70 @@
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="13" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F106" s="13" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="13" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>599</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -18388,10 +18376,10 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>605</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -18408,10 +18396,10 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>611</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -18428,10 +18416,10 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>617</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -18448,10 +18436,10 @@
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>623</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -18468,10 +18456,10 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>628</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -18488,10 +18476,10 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>634</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -18508,10 +18496,10 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>639</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -18528,10 +18516,10 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>645</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -18548,10 +18536,10 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>651</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -18568,10 +18556,10 @@
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>657</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -18588,10 +18576,10 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>663</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -18608,10 +18596,10 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>669</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -18628,10 +18616,10 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>674</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -18648,10 +18636,10 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>680</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -18668,10 +18656,10 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>686</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -18688,16 +18676,16 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="14" t="s">
         <v>694</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -18708,16 +18696,16 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="14" t="s">
         <v>700</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -18728,16 +18716,16 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="14" t="s">
         <v>706</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -18748,16 +18736,16 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="14" t="s">
         <v>712</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -18768,10 +18756,10 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>716</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -18788,10 +18776,10 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>722</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -18808,10 +18796,10 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>728</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -18828,10 +18816,10 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>734</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -18848,10 +18836,10 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>740</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -18868,10 +18856,10 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>746</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -18888,10 +18876,10 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>752</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -18900,7 +18888,7 @@
       <c r="D134" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="12" t="s">
         <v>755</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -18908,30 +18896,30 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="11" t="s">
         <v>764</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -18948,10 +18936,10 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>770</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -18968,10 +18956,10 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="11" t="s">
         <v>776</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -18988,10 +18976,10 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>782</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -19008,10 +18996,10 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="11" t="s">
         <v>788</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -19028,70 +19016,70 @@
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="F141" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="F142" s="15" t="s">
+      <c r="F142" s="14" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="143" ht="66" spans="1:6">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="F143" s="14" t="s">
+      <c r="F143" s="13" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
         <v>812</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -19108,10 +19096,10 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="11" t="s">
         <v>818</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -19128,116 +19116,116 @@
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="13" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F147" s="13" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F148" s="13" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F149" s="13" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="F150" s="14" t="s">
+      <c r="F150" s="13" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="14" t="s">
         <v>854</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -19248,430 +19236,430 @@
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F152" s="13" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>864</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="F153" s="15" t="s">
+      <c r="F153" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="D154" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="15" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D155" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="F155" s="16" t="s">
+      <c r="F155" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="E156" s="20" t="s">
+      <c r="E156" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="F156" s="16" t="s">
+      <c r="F156" s="15" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="D157" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="14" t="s">
         <v>891</v>
       </c>
-      <c r="F157" s="15" t="s">
+      <c r="F157" s="14" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="F158" s="16" t="s">
+      <c r="F158" s="15" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="F160" s="15" t="s">
+      <c r="F160" s="14" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="F161" s="15" t="s">
+      <c r="F161" s="14" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="F162" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="E163" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="F163" s="15" t="s">
+      <c r="F163" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="E164" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="F164" s="14" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="F165" s="14" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="F166" s="14" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="E167" s="15" t="s">
+      <c r="E167" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="F167" s="14" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="F168" s="14" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>958</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="E169" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="F169" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="E170" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="F170" s="15" t="s">
+      <c r="F170" s="14" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E171" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="F171" s="15" t="s">
+      <c r="F171" s="14" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E172" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="F172" s="15" t="s">
+      <c r="F172" s="14" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="173" s="3" customFormat="1" spans="1:6">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>982</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -19688,30 +19676,30 @@
       </c>
     </row>
     <row r="174" s="3" customFormat="1" spans="1:6">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" s="17" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1" spans="1:6">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>993</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -19728,10 +19716,10 @@
       </c>
     </row>
     <row r="176" s="3" customFormat="1" spans="1:6">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>998</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -19747,223 +19735,223 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="177" s="4" customFormat="1" spans="1:6">
-      <c r="A177" s="22" t="s">
+    <row r="177" s="2" customFormat="1" spans="1:6">
+      <c r="A177" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="E177" s="24" t="s">
+      <c r="E177" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="F177" s="24" t="s">
+      <c r="F177" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="178" s="4" customFormat="1" spans="1:6">
-      <c r="A178" s="22" t="s">
+    <row r="178" s="2" customFormat="1" spans="1:6">
+      <c r="A178" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="E178" s="24" t="s">
+      <c r="E178" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F178" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:6">
-      <c r="A179" s="22" t="s">
+    <row r="179" s="2" customFormat="1" spans="1:6">
+      <c r="A179" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="E179" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="F179" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" spans="1:6">
-      <c r="A180" s="22" t="s">
+    <row r="180" s="2" customFormat="1" spans="1:6">
+      <c r="A180" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="E180" s="24" t="s">
+      <c r="E180" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="F180" s="24" t="s">
+      <c r="F180" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" spans="1:6">
-      <c r="A181" s="22" t="s">
+    <row r="181" s="2" customFormat="1" spans="1:6">
+      <c r="A181" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="E181" s="24" t="s">
+      <c r="E181" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="F181" s="24" t="s">
+      <c r="F181" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" spans="1:6">
-      <c r="A182" s="22" t="s">
+    <row r="182" s="2" customFormat="1" spans="1:6">
+      <c r="A182" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="E182" s="24" t="s">
+      <c r="E182" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="F182" s="24" t="s">
+      <c r="F182" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:6">
-      <c r="A183" s="22" t="s">
+    <row r="183" s="2" customFormat="1" spans="1:6">
+      <c r="A183" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="E183" s="24" t="s">
+      <c r="E183" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="F183" s="24" t="s">
+      <c r="F183" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="184" s="4" customFormat="1" spans="1:6">
-      <c r="A184" s="22" t="s">
+    <row r="184" s="2" customFormat="1" spans="1:6">
+      <c r="A184" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="E184" s="24" t="s">
+      <c r="E184" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F184" s="24" t="s">
+      <c r="F184" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:6">
-      <c r="A185" s="22" t="s">
+    <row r="185" s="2" customFormat="1" spans="1:6">
+      <c r="A185" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="E185" s="24" t="s">
+      <c r="E185" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F185" s="24" t="s">
+      <c r="F185" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:6">
-      <c r="A186" s="22" t="s">
+    <row r="186" s="2" customFormat="1" spans="1:6">
+      <c r="A186" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D186" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E186" s="24" t="s">
+      <c r="E186" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F186" s="24" t="s">
+      <c r="F186" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="187" s="4" customFormat="1" spans="1:6">
-      <c r="A187" s="22" t="s">
+    <row r="187" s="2" customFormat="1" spans="1:6">
+      <c r="A187" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="C187" s="24" t="s">
+      <c r="C187" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="E187" s="24" t="s">
+      <c r="E187" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="F187" s="24" t="s">
+      <c r="F187" s="3" t="s">
         <v>1067</v>
       </c>
     </row>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -3514,20 +3514,23 @@
     <t>Task_Des_OwnFriendAndAllReachLv</t>
   </si>
   <si>
-    <t>Have {0} close friends reach lv{0}</t>
-  </si>
-  <si>
-    <t>Пусть {0} близкие друзья достигают лв {0}</t>
-  </si>
-  <si>
-    <t>持っている{0}の親しい友人が到達LV {0}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
+    <t>Have {0} close friends reach lv{1}</t>
+  </si>
+  <si>
+    <t>Пусть {0} близкие друзья достигнут уровня {1}</t>
+  </si>
+  <si>
+    <t>{0}親しい友人をレベル{1}に到達させる</t>
+  </si>
+  <si>
+    <r>
+      <t>{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>친한</t>
@@ -3539,49 +3542,49 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>친구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>명이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> lv {0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>친구가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> {1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>에</t>
@@ -3593,29 +3596,20 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>도달하도록합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Besitze {0} enge Freunde lv {0} erreichen</t>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>도달하도록</t>
+    </r>
+  </si>
+  <si>
+    <t>Lassen Sie {0} enge Freunde Stufe {1} erreichen</t>
   </si>
   <si>
     <t>BUY</t>
@@ -13051,40 +13045,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13095,17 +13058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13119,23 +13073,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13150,7 +13104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13158,7 +13120,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13179,16 +13157,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13221,7 +13215,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13239,31 +13353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13275,61 +13365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13341,61 +13389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13446,41 +13440,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -13489,16 +13448,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13528,16 +13498,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13549,10 +13543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13561,19 +13555,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13582,120 +13576,123 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13739,6 +13736,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16223,15 +16229,15 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A68" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D98" sqref="D98"/>
+      <selection pane="topRight" activeCell="A77" sqref="$A77:$XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.075" style="4" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.075" style="5" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
@@ -16240,10 +16246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -16252,3706 +16258,3706 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="15" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:6">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:6">
-      <c r="A77" s="4" t="s">
+    <row r="77" s="3" customFormat="1" spans="1:6">
+      <c r="A77" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="19" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="4" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="4" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="6" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:6">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="6" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="4" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="4" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="4" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="4" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="4" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E105" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="14" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="14" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="4" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="4" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="4" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="4" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="4" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="4" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="4" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="4" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="4" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="4" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="4" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="4" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="4" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="4" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="4" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="4" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="4" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="4" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="4" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="4" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="4" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="4" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="4" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="15" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="4" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="4" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="4" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="4" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="4" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="14" t="s">
+      <c r="F141" s="15" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="15" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="143" ht="66" spans="1:6">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="E143" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="F143" s="13" t="s">
+      <c r="F143" s="14" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="4" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="4" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="E146" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="F146" s="14" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="E147" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="14" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="D148" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="E148" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="F148" s="13" t="s">
+      <c r="F148" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="D149" s="13" t="s">
+      <c r="D149" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="E149" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="F149" s="13" t="s">
+      <c r="F149" s="14" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="E150" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="F150" s="13" t="s">
+      <c r="F150" s="14" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="4" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E152" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="F152" s="14" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="14" t="s">
         <v>873</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="F154" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="14" t="s">
         <v>877</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="D155" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="F155" s="16" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="E156" s="19" t="s">
+      <c r="E156" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="F156" s="15" t="s">
+      <c r="F156" s="16" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="F157" s="15" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="12" t="s">
         <v>894</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="24" t="s">
         <v>897</v>
       </c>
-      <c r="F158" s="15" t="s">
+      <c r="F158" s="16" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="E159" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="F159" s="14" t="s">
+      <c r="F159" s="15" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="F160" s="14" t="s">
+      <c r="F160" s="15" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="E161" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="F161" s="14" t="s">
+      <c r="F161" s="15" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="F162" s="14" t="s">
+      <c r="F162" s="15" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F163" s="15" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="F164" s="14" t="s">
+      <c r="F164" s="15" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="F165" s="14" t="s">
+      <c r="F165" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E166" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="F166" s="15" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F167" s="15" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="E168" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="F168" s="14" t="s">
+      <c r="F168" s="15" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E169" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="F169" s="15" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C170" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="E170" s="14" t="s">
+      <c r="E170" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="F170" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="F171" s="15" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E172" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="F172" s="14" t="s">
+      <c r="F172" s="15" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="173" s="3" customFormat="1" spans="1:6">
-      <c r="A173" s="4" t="s">
+    <row r="173" s="4" customFormat="1" spans="1:6">
+      <c r="A173" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="4" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="174" s="3" customFormat="1" spans="1:6">
-      <c r="A174" s="4" t="s">
+    <row r="174" s="4" customFormat="1" spans="1:6">
+      <c r="A174" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="21" t="s">
         <v>989</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="D174" s="21" t="s">
         <v>990</v>
       </c>
-      <c r="E174" s="17" t="s">
+      <c r="E174" s="21" t="s">
         <v>991</v>
       </c>
-      <c r="F174" s="17" t="s">
+      <c r="F174" s="21" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="175" s="3" customFormat="1" spans="1:6">
-      <c r="A175" s="4" t="s">
+    <row r="175" s="4" customFormat="1" spans="1:6">
+      <c r="A175" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="4" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="176" s="3" customFormat="1" spans="1:6">
-      <c r="A176" s="4" t="s">
+    <row r="176" s="4" customFormat="1" spans="1:6">
+      <c r="A176" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="4" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:6">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="4" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:6">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="4" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:6">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:6">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:6">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F181" s="4" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:6">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F182" s="4" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:6">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="4" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:6">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="F184" s="4" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:6">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="4" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:6">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="4" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:6">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="4" t="s">
         <v>1067</v>
       </c>
     </row>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1091">
   <si>
     <t xml:space="preserve">内                                          国 </t>
   </si>
@@ -3524,6 +3524,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{0} </t>
     </r>
     <r>
@@ -8959,9 +8965,9 @@
   </si>
   <si>
     <t>1.友達が広告を見てタスクを完了することでポイントを獲得できます。また、友達の友達からポイントを獲得することもできます。
-&lt;color=#FFE200&gt;2.私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
-3.毎日UTC10：00：00、友達からの昨日の収入を確認できます。
-ポイントはお金と交換できます。100,000ポイントは1米ドルに相当します。
+&lt;color=#FFE200&gt;私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
+2.毎日UTC10：00：00、友達からの昨日の収入を確認できます。
+3.ポイントはお金と交換できます。100,000ポイントは1米ドルに相当します。
 4.&lt;color=#FFE200&gt;オファーのタスクを完了すると、巨大なポイントを獲得できます。&lt;/color&gt;</t>
   </si>
   <si>
@@ -13001,6 +13007,101 @@
   <si>
     <t>Nächster</t>
   </si>
+  <si>
+    <t>EnterCashoutTask_Des1</t>
+  </si>
+  <si>
+    <t>Watch 100 Videos</t>
+  </si>
+  <si>
+    <t>Посмотреть 100 видео</t>
+  </si>
+  <si>
+    <t>100本のビデオを見る</t>
+  </si>
+  <si>
+    <t>동영상 100 개보기</t>
+  </si>
+  <si>
+    <t>100 Videos ansehen</t>
+  </si>
+  <si>
+    <t>EnterCashoutTask_Des2</t>
+  </si>
+  <si>
+    <t>Active For 7 Days</t>
+  </si>
+  <si>
+    <t>Активен 7 дней</t>
+  </si>
+  <si>
+    <t>7日間アクティブ</t>
+  </si>
+  <si>
+    <t>7 일 동안 사용</t>
+  </si>
+  <si>
+    <t>7 Tage aktiv</t>
+  </si>
+  <si>
+    <t>EnterCashoutTask_Tip</t>
+  </si>
+  <si>
+    <t>You only need to complete any one task to cash out.</t>
+  </si>
+  <si>
+    <t>Вам нужно всего лишь выполнить одно задание, чтобы обналичить деньги.</t>
+  </si>
+  <si>
+    <t>キャッシュアウトするには、1つのタスクを完了するだけです。</t>
+  </si>
+  <si>
+    <t>현금화하려면 하나의 작업 만 완료하면됩니다.</t>
+  </si>
+  <si>
+    <t>Sie müssen nur eine Aufgabe ausführen, um eine Auszahlung zu erhalten.</t>
+  </si>
+  <si>
+    <t>REDEEM</t>
+  </si>
+  <si>
+    <t>ВЫКУПАТЬ</t>
+  </si>
+  <si>
+    <t>贖う</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>사다</t>
+    </r>
+  </si>
+  <si>
+    <t>EINLÖSEN</t>
+  </si>
 </sst>
 </file>
 
@@ -13008,9 +13109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -13045,20 +13146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -13066,30 +13153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13104,7 +13168,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13134,24 +13206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13175,6 +13239,43 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13215,73 +13316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13299,13 +13358,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13317,85 +13490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13441,6 +13542,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -13464,35 +13600,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13526,15 +13636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13543,10 +13644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13555,144 +13656,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13737,15 +13835,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -13760,6 +13849,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -16226,18 +16324,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A167" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A77" sqref="$A77:$XFD77"/>
+      <selection pane="topRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.075" style="5" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.075" style="4" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
     <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
@@ -16246,10 +16344,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -16258,3707 +16356,3787 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:6">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" s="3" customFormat="1" spans="1:6">
-      <c r="A77" s="17" t="s">
+    <row r="77" s="2" customFormat="1" spans="1:6">
+      <c r="A77" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="14" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:6">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="13" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F98" s="13" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="13" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="F106" s="13" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="13" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="3" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="3" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="3" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="3" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="3" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="3" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="3" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="3" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="E134" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="3" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="3" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="3" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="3" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="F141" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="F142" s="15" t="s">
+      <c r="F142" s="14" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="143" ht="66" spans="1:6">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="F143" s="14" t="s">
+      <c r="F143" s="13" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="3" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="3" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="13" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F147" s="13" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F148" s="13" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F149" s="13" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="F150" s="14" t="s">
+      <c r="F150" s="13" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="3" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F152" s="13" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="D153" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="F153" s="15" t="s">
+      <c r="F153" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="D154" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="15" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D155" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="F155" s="16" t="s">
+      <c r="F155" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="F156" s="16" t="s">
+      <c r="F156" s="15" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="D157" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="14" t="s">
         <v>891</v>
       </c>
-      <c r="F157" s="15" t="s">
+      <c r="F157" s="14" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="E158" s="24" t="s">
+      <c r="E158" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="F158" s="16" t="s">
+      <c r="F158" s="15" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="F160" s="15" t="s">
+      <c r="F160" s="14" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="F161" s="15" t="s">
+      <c r="F161" s="14" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="F162" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="E163" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="F163" s="15" t="s">
+      <c r="F163" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="E164" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="F164" s="14" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="F165" s="14" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="F166" s="14" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="E167" s="15" t="s">
+      <c r="E167" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="F167" s="14" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="F168" s="14" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>958</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="E169" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="F169" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="E170" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="F170" s="15" t="s">
+      <c r="F170" s="14" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E171" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="F171" s="15" t="s">
+      <c r="F171" s="14" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E172" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="F172" s="15" t="s">
+      <c r="F172" s="14" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="173" s="4" customFormat="1" spans="1:6">
-      <c r="A173" s="5" t="s">
+    <row r="173" s="3" customFormat="1" spans="1:6">
+      <c r="A173" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F173" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1" spans="1:6">
-      <c r="A174" s="5" t="s">
+    <row r="174" s="3" customFormat="1" spans="1:6">
+      <c r="A174" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="17" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:6">
-      <c r="A175" s="5" t="s">
+    <row r="175" s="3" customFormat="1" spans="1:6">
+      <c r="A175" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="176" s="4" customFormat="1" spans="1:6">
-      <c r="A176" s="5" t="s">
+    <row r="176" s="3" customFormat="1" spans="1:6">
+      <c r="A176" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:6">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F177" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:6">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:6">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:6">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:6">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F181" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:6">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="F182" s="4" t="s">
+      <c r="F182" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:6">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="E183" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="F183" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:6">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="F184" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:6">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E185" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:6">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:6">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="E187" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="F187" s="3" t="s">
         <v>1067</v>
+      </c>
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:6">
+      <c r="A188" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:6">
+      <c r="A189" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="191" customFormat="1" spans="1:6">
+      <c r="A191" s="21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F191" s="23" t="s">
+        <v>1090</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1098">
   <si>
     <t xml:space="preserve">内                                          国 </t>
   </si>
@@ -751,7 +751,7 @@
     <t>Счет PayPal</t>
   </si>
   <si>
-    <t>Paypalメール：</t>
+    <t>Paypayメール：</t>
   </si>
   <si>
     <r>
@@ -792,7 +792,7 @@
     <t>Пожалуйста, привязывать PayPal счета</t>
   </si>
   <si>
-    <t>PayPalアカウントをバインドしてください</t>
+    <t>PayPayアカウントをバインドしてください</t>
   </si>
   <si>
     <r>
@@ -895,7 +895,10 @@
     <t>Dollar</t>
   </si>
   <si>
-    <t>$</t>
+    <t>${0}</t>
+  </si>
+  <si>
+    <t>{0}円</t>
   </si>
   <si>
     <t>Cashout_GoldRedeemTip</t>
@@ -907,7 +910,7 @@
     <t>5 миллионов золотых монет по 5$</t>
   </si>
   <si>
-    <t>500万枚のコインが5ドルを引き換えます</t>
+    <t>500万枚のコインが500円ルを引き換えます</t>
   </si>
   <si>
     <r>
@@ -960,7 +963,7 @@
     <t>ВАЖНО: Paypal будет взимать плату за каждый перевод. Плата за обслуживание в каждой стране разная, мы можем узнать на официальном сайте.</t>
   </si>
   <si>
-    <t>重要：Paypalは転送ごとに課金します。 各国のサービス料は異なりますので、公式サイトから知ることができます。</t>
+    <t>重要：Paypayは転送ごとに課金します。 各国のサービス料は異なりますので、公式サイトから知ることができます。</t>
   </si>
   <si>
     <r>
@@ -1265,7 +1268,7 @@
     <t>О комиссии Paypal</t>
   </si>
   <si>
-    <t>Paypal料金について</t>
+    <t>Paypay料金について</t>
   </si>
   <si>
     <r>
@@ -2266,7 +2269,7 @@
     <t>Получите $ 0,5 за пригласите</t>
   </si>
   <si>
-    <t>$ 0.5を取得するための招待</t>
+    <t>50円を取得するための招待</t>
   </si>
   <si>
     <t>초대 당 $ 0.5 받기</t>
@@ -3396,7 +3399,7 @@
     <t>Бесплатные билеты</t>
   </si>
   <si>
-    <t>無料Ticketshuo</t>
+    <t>無料チケット</t>
   </si>
   <si>
     <r>
@@ -3958,7 +3961,7 @@
     <t>СЧЕТ PAYPAL</t>
   </si>
   <si>
-    <t>PAYPALアカウント</t>
+    <t>PAYPAYアカウント</t>
   </si>
   <si>
     <r>
@@ -8282,9 +8285,9 @@
 4.Будет много победителей с разными бонусами.</t>
   </si>
   <si>
-    <t>1.LuckyDrawには毎日1,000米ドルの賞金があります。
+    <t>1.LuckyDrawには毎日100,000円ルの賞金があります。
 2.ラッキードローに参加するには、{0}枚のチケットが必要です。 あなたが持っているより多くのチケット、より多くのチャンス。
-3.毎日08：00：00UTCに、すべての抽選チケットが自動的に賞金プールに入れられますとドローが完了します。
+3.毎日08:00:00 UTCに、すべての抽選チケットが自動的に賞金プールに入れられますとドローが完了します。
 4.別のボーナスを持つ多くの勝者があるでしょう。</t>
   </si>
   <si>
@@ -8935,10 +8938,10 @@
 17-50 приз $ 10</t>
   </si>
   <si>
-    <t>最初の$ 200
-2位-3位 $ 100
-4位-16位  $ 20
-17位-50位 $ 10</t>
+    <t>最初の 20000円
+2位-3位  10000円
+4位-16位  2000円
+17位-50位  1000円</t>
   </si>
   <si>
     <t>1 $200 
@@ -8967,7 +8970,7 @@
     <t>1.友達が広告を見てタスクを完了することでポイントを獲得できます。また、友達の友達からポイントを獲得することもできます。
 &lt;color=#FFE200&gt;私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
 2.毎日UTC10：00：00、友達からの昨日の収入を確認できます。
-3.ポイントはお金と交換できます。100,000ポイントは1米ドルに相当します。
+3.ポイントはお金と交換できます。100,000ポイントは100円ルに相当します。
 4.&lt;color=#FFE200&gt;オファーのタスクを完了すると、巨大なポイントを獲得できます。&lt;/color&gt;</t>
   </si>
   <si>
@@ -11811,7 +11814,7 @@
 4.Поскольку неправильная информация является причиной неудачной оплаты, мы не несем ответственности.</t>
   </si>
   <si>
-    <t>1.あなたは、サインイン連続15日後に50 $を撤回することができます。
+    <t>1.あなたは、サインイン連続15日後に5000円を撤回することができます。
 2.毎日のサインインは追加のボーナスを得ることができます、それによって撤回してくださいい
 3.私たちは決して詐欺師を憐れみません、私たちは詐欺師のすべてのデータを消去します。
 4.間違った情報は支払いの失敗を引き起こすので、私たちは責任を負いません。</t>
@@ -11881,13 +11884,13 @@
   </si>
   <si>
     <t>現金を手に入れるには、招待された友達は毎日対応するレベルに到達する必要があります。
-1.$ 0.01——初日：Lv3
-2.$ 0.01——2日目：Lv8
-3.$ 0.01——3日目：Lv10
-4.$ 0.01——4日目：Lv15
-5.$ 0.01——5日目：Lv20
-6.$ 0.01——6日目：Lv25
-7.$ 0.44——7日目：Lv30</t>
+1. 1円——初日：Lv3
+2. 1円——2日目：Lv8
+3. 1円——3日目：Lv10
+4. 1円——4日目：Lv15
+5. 1円——5日目：Lv20
+6. 1円——6日目：Lv25
+7. 4.4円——7日目：Lv30</t>
   </si>
   <si>
     <r>
@@ -12242,7 +12245,7 @@
     <t>Я заработал $ 5 в игре, вы можете попробовать.</t>
   </si>
   <si>
-    <t>私はあなたがそれを試すことができ、ゲームで$ 5獲得しました。</t>
+    <t>私はあなたがそれを試すことができ、ゲームで500円獲得しました。</t>
   </si>
   <si>
     <r>
@@ -12475,7 +12478,7 @@
     <t>Вы не можете получить $ 50 причин не удалось из задачи 14-день, вывести бонус влево.</t>
   </si>
   <si>
-    <t>14日間のタスクが失敗したため、50ドルを獲得することはできません。ボーナスを残して、引き出してください。</t>
+    <t>14日間のタスクが失敗したため、5000円ルを獲得することはできません。ボーナスを残して、引き出してください。</t>
   </si>
   <si>
     <t>14 일 작업에 실패하여 $ 50를받을 수 없습니다. 보너스를 왼쪽으로 인출하세요.</t>
@@ -13101,6 +13104,59 @@
   </si>
   <si>
     <t>EINLÖSEN</t>
+  </si>
+  <si>
+    <t>Loading_Title</t>
+  </si>
+  <si>
+    <t>Always a Winner!</t>
+  </si>
+  <si>
+    <t>Всегда победитель!</t>
+  </si>
+  <si>
+    <t>ウインナーとなれ！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>항상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>승자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>Immer ein Gewinner!</t>
   </si>
 </sst>
 </file>
@@ -13109,9 +13165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -13146,6 +13202,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -13153,22 +13216,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13182,85 +13252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13283,9 +13276,72 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13316,43 +13372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13370,19 +13396,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13394,85 +13456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13490,13 +13480,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13539,26 +13595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13583,41 +13630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13636,6 +13653,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13644,10 +13700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13656,133 +13712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16324,20 +16380,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B194" sqref="B194"/>
+      <selection pane="topRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.075" style="4" customWidth="1"/>
     <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="104.466666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="105.533333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="130.433333333333" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
@@ -16650,7 +16706,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>81</v>
@@ -16661,2059 +16717,2059 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="F83" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="E89" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
       <c r="A94" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
       <c r="A97" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
       <c r="A105" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
       <c r="A112" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>43</v>
@@ -18721,1422 +18777,1442 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="143" ht="66" spans="1:6">
       <c r="A143" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="146" ht="82.5" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="147" ht="66" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="148" ht="115.5" spans="1:6">
       <c r="A148" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="149" ht="66" spans="1:6">
       <c r="A149" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="150" ht="132" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="152" ht="82.5" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C165" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="D165" s="14" t="s">
-        <v>936</v>
-      </c>
       <c r="E165" s="14" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C167" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="F167" s="14" t="s">
         <v>948</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>950</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
       <c r="A170" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
       <c r="A171" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
       <c r="A172" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="173" s="3" customFormat="1" spans="1:6">
       <c r="A173" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="1" spans="1:6">
       <c r="A174" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="1" spans="1:6">
       <c r="A175" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="176" s="3" customFormat="1" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:6">
       <c r="A180" s="4" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:6">
       <c r="A181" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:6">
       <c r="A182" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:6">
       <c r="A183" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:6">
       <c r="A184" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:6">
       <c r="A185" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="188" s="3" customFormat="1" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="189" s="3" customFormat="1" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="1" spans="1:6">
       <c r="A190" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:6">
       <c r="A191" s="21" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E191" s="23" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>1090</v>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/HiSpin/Language.xlsx
+++ b/Assets/HiSpin/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1117">
   <si>
     <t xml:space="preserve">内                                          国 </t>
   </si>
@@ -3936,6 +3936,9 @@
   </si>
   <si>
     <t>МНЕ</t>
+  </si>
+  <si>
+    <t>私</t>
   </si>
   <si>
     <r>
@@ -7640,6 +7643,345 @@
     <t>Sie müssen für die Überprüfung zu Ende warten</t>
   </si>
   <si>
+    <t>Tips_EnterCashoutTask</t>
+  </si>
+  <si>
+    <t>You need to complete any one task first.</t>
+  </si>
+  <si>
+    <t>Вам нужно выполнить какую-то одну задачу первой.</t>
+  </si>
+  <si>
+    <t>最初にいずれかのタスクを完了する必要があります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>먼저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>하나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>작업을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>완료해야합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sie müssen zuerst eine Aufgabe erledigen.</t>
+  </si>
+  <si>
+    <t>Tips_CashoutCash</t>
+  </si>
+  <si>
+    <t>Sorry, your balance is not enough to redeem this gift.</t>
+  </si>
+  <si>
+    <t>Ксожалению, ваш баланс не достаточно, чтобы погасить этот дар.</t>
+  </si>
+  <si>
+    <t>申し訳ありませんが、このギフトを利用するには残高が足りません。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>죄송합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>잔액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>부족하여이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선물을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ihr Guthaben reicht leider nicht aus, um dieses Geschenk einzulösen.</t>
+  </si>
+  <si>
+    <t>Tips_NoGiftAd</t>
+  </si>
+  <si>
+    <t>Loading failed, please try again later.</t>
+  </si>
+  <si>
+    <t>Ошибка загрузки. Повторите попытку позже.</t>
+  </si>
+  <si>
+    <t>失敗したロード、後ほど再度お試しください。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>로드하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>못했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>나중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>시도하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Laden fehlgeschlagen, versuchen Sie es später erneut.</t>
+  </si>
+  <si>
     <t>Rules_PlaySlots</t>
   </si>
   <si>
@@ -8285,9 +8627,9 @@
 4.Будет много победителей с разными бонусами.</t>
   </si>
   <si>
-    <t>1.LuckyDrawには毎日100,000円ルの賞金があります。
+    <t>1.には毎日100,000円ルの賞金があります。
 2.ラッキードローに参加するには、{0}枚のチケットが必要です。 あなたが持っているより多くのチケット、より多くのチャンス。
-3.毎日08:00:00 UTCに、すべての抽選チケットが自動的に賞金プールに入れられますとドローが完了します。
+3.毎日08:00:00UTCに、すべての抽選チケットが自動的に賞金プールに入れられますとドローが完了します。
 4.別のボーナスを持つ多くの勝者があるでしょう。</t>
   </si>
   <si>
@@ -13222,8 +13564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13238,22 +13581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13274,9 +13602,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13307,7 +13642,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13331,7 +13673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13372,7 +13714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13390,49 +13738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13450,7 +13756,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13462,7 +13810,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13474,7 +13864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13492,67 +13894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13596,6 +13938,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -13606,6 +13963,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13624,8 +13990,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13633,8 +13999,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13649,30 +14015,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -13700,10 +14042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13712,19 +14054,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13733,112 +14075,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13894,6 +14236,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13911,9 +14256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -16380,12 +16722,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A112" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D75" sqref="D75"/>
+      <selection pane="topRight" activeCell="A145" sqref="$A145:$XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -18145,631 +18487,631 @@
       <c r="C89" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>489</v>
+      <c r="D89" s="17" t="s">
+        <v>491</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
       <c r="A94" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" ht="66" spans="1:6">
       <c r="A97" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" ht="33" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" ht="33" spans="1:6">
       <c r="A105" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" ht="33" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" ht="33" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B111" s="17" t="s">
         <v>618</v>
       </c>
+      <c r="B111" s="18" t="s">
+        <v>619</v>
+      </c>
       <c r="C111" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
       <c r="A112" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>43</v>
@@ -18777,1442 +19119,1502 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:6">
       <c r="A141" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:6">
       <c r="A142" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
-    <row r="143" ht="66" spans="1:6">
+    <row r="143" s="2" customFormat="1" spans="1:6">
       <c r="A143" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="B143" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="B143" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="C143" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="D143" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="F143" s="13" t="s">
+      <c r="E143" s="17" t="s">
         <v>811</v>
       </c>
+      <c r="F143" s="17" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" s="2" customFormat="1" spans="1:6">
       <c r="A144" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B144" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="C144" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="D144" s="17" t="s">
         <v>816</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="E144" s="17" t="s">
         <v>817</v>
       </c>
+      <c r="F144" s="17" t="s">
+        <v>818</v>
+      </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" s="2" customFormat="1" spans="1:6">
       <c r="A145" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B145" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="C145" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="D145" s="17" t="s">
         <v>822</v>
       </c>
+      <c r="E145" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>824</v>
+      </c>
     </row>
-    <row r="146" ht="82.5" spans="1:6">
+    <row r="146" ht="66" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="147" ht="66" spans="1:6">
+    <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>831</v>
-      </c>
-      <c r="D147" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="C147" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>833</v>
+      <c r="D147" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="148" ht="115.5" spans="1:6">
+    <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="E148" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="F148" s="13" t="s">
+      <c r="C148" s="3" t="s">
         <v>839</v>
       </c>
+      <c r="D148" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>841</v>
+      </c>
     </row>
-    <row r="149" ht="66" spans="1:6">
+    <row r="149" ht="82.5" spans="1:6">
       <c r="A149" s="4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
-    <row r="150" ht="132" spans="1:6">
+    <row r="150" ht="66" spans="1:6">
       <c r="A150" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" ht="115.5" spans="1:6">
       <c r="A151" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C151" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="C151" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="D151" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="E151" s="13" t="s">
         <v>857</v>
       </c>
+      <c r="F151" s="13" t="s">
+        <v>858</v>
+      </c>
     </row>
-    <row r="152" ht="82.5" spans="1:6">
+    <row r="152" ht="66" spans="1:6">
       <c r="A152" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" ht="132" spans="1:6">
       <c r="A153" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B153" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="C153" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="D153" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="E153" s="13" t="s">
         <v>869</v>
       </c>
+      <c r="F153" s="13" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="82.5" spans="1:6">
+    <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="C154" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="C154" s="14" t="s">
         <v>873</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="D154" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="F154" s="15" t="s">
+      <c r="E154" s="3" t="s">
         <v>875</v>
       </c>
+      <c r="F154" s="3" t="s">
+        <v>876</v>
+      </c>
     </row>
-    <row r="155" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="155" ht="82.5" spans="1:6">
       <c r="A155" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="D155" s="15" t="s">
         <v>879</v>
       </c>
+      <c r="D155" s="13" t="s">
+        <v>880</v>
+      </c>
       <c r="E155" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="F155" s="15" t="s">
         <v>881</v>
       </c>
+      <c r="F155" s="13" t="s">
+        <v>882</v>
+      </c>
     </row>
-    <row r="156" s="2" customFormat="1" ht="148.5" spans="1:6">
+    <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B156" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="B156" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="C156" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="E156" s="19" t="s">
+      <c r="D156" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="F156" s="15" t="s">
+      <c r="E156" s="14" t="s">
         <v>887</v>
       </c>
+      <c r="F156" s="14" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:6">
+    <row r="157" s="2" customFormat="1" ht="82.5" spans="1:6">
       <c r="A157" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B157" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="B157" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="C157" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="D157" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="E157" s="13" t="s">
         <v>893</v>
       </c>
+      <c r="F157" s="15" t="s">
+        <v>894</v>
+      </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:6">
+    <row r="158" s="2" customFormat="1" ht="115.5" spans="1:6">
       <c r="A158" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="E158" s="20" t="s">
         <v>898</v>
       </c>
+      <c r="E158" s="13" t="s">
+        <v>899</v>
+      </c>
       <c r="F158" s="15" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:6">
+    <row r="159" s="2" customFormat="1" ht="148.5" spans="1:6">
       <c r="A159" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="B159" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="B159" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="C159" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="D159" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="F159" s="14" t="s">
+      <c r="E159" s="20" t="s">
         <v>905</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:6">
       <c r="A160" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B160" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="B160" s="14" t="s">
         <v>908</v>
       </c>
+      <c r="C160" s="14" t="s">
+        <v>909</v>
+      </c>
       <c r="D160" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:6">
       <c r="A161" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="B161" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="B161" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="C161" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="D161" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="F161" s="14" t="s">
+      <c r="E161" s="21" t="s">
         <v>917</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:6">
       <c r="A162" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="C162" s="5" t="s">
         <v>920</v>
       </c>
+      <c r="C162" s="14" t="s">
+        <v>921</v>
+      </c>
       <c r="D162" s="14" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:6">
       <c r="A163" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:6">
       <c r="A166" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:6">
       <c r="A167" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:6">
       <c r="A168" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>953</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>957</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:6">
       <c r="A169" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>959</v>
-      </c>
-      <c r="C169" s="14" t="s">
         <v>960</v>
       </c>
+      <c r="B169" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>962</v>
+      </c>
       <c r="D169" s="14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:6">
       <c r="A170" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>965</v>
-      </c>
-      <c r="C170" s="14" t="s">
         <v>966</v>
       </c>
+      <c r="B170" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>968</v>
+      </c>
       <c r="D170" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="F170" s="14" t="s">
         <v>967</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>968</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:6">
       <c r="A171" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:6">
       <c r="A172" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
-    <row r="173" s="3" customFormat="1" spans="1:6">
+    <row r="173" s="2" customFormat="1" spans="1:6">
       <c r="A173" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="B173" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="B173" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="C173" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="D173" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="E173" s="14" t="s">
         <v>987</v>
       </c>
+      <c r="F173" s="14" t="s">
+        <v>988</v>
+      </c>
     </row>
-    <row r="174" s="3" customFormat="1" spans="1:6">
+    <row r="174" s="2" customFormat="1" spans="1:6">
       <c r="A174" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B174" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="B174" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="C174" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="E174" s="17" t="s">
+      <c r="D174" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="F174" s="17" t="s">
+      <c r="E174" s="14" t="s">
         <v>993</v>
       </c>
+      <c r="F174" s="14" t="s">
+        <v>994</v>
+      </c>
     </row>
-    <row r="175" s="3" customFormat="1" spans="1:6">
+    <row r="175" s="2" customFormat="1" spans="1:6">
       <c r="A175" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="C175" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="B175" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="C175" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="D175" s="14" t="s">
         <v>998</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="176" s="3" customFormat="1" spans="1:6">
       <c r="A176" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>961</v>
+        <v>1004</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:6">
+    <row r="177" s="3" customFormat="1" spans="1:6">
       <c r="A177" s="4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F177" s="3" t="s">
         <v>1008</v>
       </c>
+      <c r="C177" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F177" s="18" t="s">
+        <v>1012</v>
+      </c>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:6">
+    <row r="178" s="3" customFormat="1" spans="1:6">
       <c r="A178" s="4" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:6">
+    <row r="179" s="3" customFormat="1" spans="1:6">
       <c r="A179" s="4" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:6">
       <c r="A180" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:6">
       <c r="A181" s="4" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:6">
       <c r="A182" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:6">
       <c r="A183" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:6">
       <c r="A184" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:6">
       <c r="A185" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:6">
       <c r="A186" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:6">
       <c r="A187" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
-    <row r="188" s="3" customFormat="1" spans="1:6">
+    <row r="188" s="2" customFormat="1" spans="1:6">
       <c r="A188" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
-    <row r="189" s="3" customFormat="1" spans="1:6">
+    <row r="189" s="2" customFormat="1" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
-    <row r="190" s="3" customFormat="1" spans="1:6">
+    <row r="190" s="2" customFormat="1" spans="1:6">
       <c r="A190" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
-    <row r="191" customFormat="1" spans="1:6">
-      <c r="A191" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B191" s="22" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C191" s="23" t="s">
+    <row r="191" s="3" customFormat="1" spans="1:6">
+      <c r="A191" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="B191" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="C191" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="F191" s="23" t="s">
+      <c r="D191" s="3" t="s">
         <v>1091</v>
       </c>
+      <c r="E191" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>1093</v>
+      </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" s="3" customFormat="1" spans="1:6">
       <c r="A192" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D192" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="C192" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="F192" s="23" t="s">
+      <c r="D192" s="3" t="s">
         <v>1097</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:6">
+      <c r="A193" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="194" customFormat="1" spans="1:6">
+      <c r="A194" s="22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
